--- a/Pull Request Here/Vanilla Plants Expanded - 2134308522/Vanilla Plants Expanded - 2134308522.xlsx
+++ b/Pull Request Here/Vanilla Plants Expanded - 2134308522/Vanilla Plants Expanded - 2134308522.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9AFA18-9A30-4E73-BFBB-2FC57E2DFEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124481F2-D9F8-46A0-AEC0-0C895592FFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="528">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -1074,10 +1074,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>푸룬이라고도 불리는 건자두입니다. 오랫동안 상하지 않고 먹을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1182,10 +1178,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>작고 붉은 열매로 알려진 월귤입니다. 생으로도 종종 먹으며 신맛과 밍밍한 맛이 나지만, 요리하면 자연스러운 단맛이 나오고 훨씬 더 맛있게 먹을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pea plant</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1254,10 +1246,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>자주빛이 도는 붉은색의 달콤한 버찌입니다. 체리로도 불리는 버찌는 계절성 겨울철 시즌이 필요하기 때문에, 추운 북방 문화권에서 인기 있는 과일이 되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자두 나무</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1266,10 +1254,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>맛있고 윤기 나는 빨간 사과입니다. 사과는 인류 초기부터 간식, 디저트 재료, 그리고 과일주를 만드는 데 사용되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>pear tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1290,10 +1274,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>완두는 물이 많이 필요하여 비가 오면 크게 자랍니다. 또한, 완두콩은 두꺼운 꼬투리 만큼 긴 보존 기간을 가지는 것으로 유명합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 평소에는 다른 작물보다 효율이 떨어지지만, 비가 올 때는 성장 속도가 50% 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>분홍빛의 멜론같은 식용 과일로, 오래전부터 사막 지역의 원주민들의 간식뿐만이 아니라 민간요법으로도 사용되었습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1370,18 +1350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>약간 단단한 잎이 많은 녹색 채소로, 종종 잘게 썰어 발효시키거나 조리하여 사용됩니다. 샐러드와 코울슬로가 대표적인 요리입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재배된 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 소에게 먹일 수 있어 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재배된 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 소에게 먹일 수 있어 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>chioggia beet plant</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1462,10 +1430,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>즙이 많고 광택이 나는 연한 붉은 과일로, 일반적으로 채소로 사용됩니다. 강하게 졸이면 내부의 산성이 부드러워져 감칠맛이 잘 느껴집니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>red beefsteak tomatoes</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1494,10 +1458,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>윤기 나는 빨간 사과를 맺는 나무로, 다양한 품종이 존재하지만 이 빨간 품종은 따뜻한 여름과 온화한 겨울을 선호합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sakura tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1602,14 +1562,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>특유의 다소 떫은 맛을 가지고 있어 요리, 특히 과일 보존식품과 잼에 널리 사용됩니다. 많은 문화권에서는 자두를 건조시켜 유통기한이 긴 말린 자두로 만듭니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt;상온에서 약 15일이 지나면 장기간 유통 가능한 말린 자두가 됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>진한 보랏빛이 도는 매끈한 과일로 특히 신맛이 납니다. 다양한 잼, 젤리, 과일주로 만들어 먹기도 하며, 장기 보존을 위해 말려 건자두로 만들기도 합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt;상온에 두고 약 15일이 지나면 장기간 보관할 수 있는 말린 자두가 됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gros michel banana tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1634,38 +1586,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이 바나나 나무는 21세기에 멸종이 일어날 뻔한 대규모 바나나병 감염 사태에서도 살아남도록 유전자 변형되었습니다. 이 품종도 한 번에 전체 "송이"를 수확할 수 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n그로 미셀 바나나는 "송이" 단위로 수확하기 때문에, 다른 과일 나무들보다 빠르게 재배합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그로 미셀 바나나는 캐번디시 바나나와는 다른 독특한 맛을 가지고 있습니다. 한때는 캐번디시 품종의 자리를 위협하기도 했었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>달콤한 버찌를 맺는 벚꽃나무는 계절성 겨울철 시즌을 필요로 하는 것으로 유명합니다. 매우 아름다우며, 다양한 문화권에서 겨울 벚꽃축제의 무대가 되곤 합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n벚꽃나무는 다른 과일 나무보다 두배 아름답고, 겨울마다 만개하는 벚꽃으로 뒤덮입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>붉은 열매로 점철된 낮게 자라는 덤불로, 고산지대 혹은 북위 38도 이상 고위도에서 쉽게 볼 수 있으며, 척박한 토양에서도 잘 자랍니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n월귤 덤불은 화분에서도 재배할 수 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아삭아삭한 녹색 배입니다. 사과의 먼 사촌으로 서로 비슷하지만, 배가 섬유질이 더 많은 편이고 단맛이 덜합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21세기를 강타한 대규모 바나나병 감염 사태에서 살아남은 품종으로 열대지방 대표적인 나무입니다. 노란색의 길쭉한 열매인 바나나가 따기 편하게 송이째로 달려 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n바나나는 한 번에 "송이"를 수확할 수 있어, 다른 나무들보다 수확 시간이 훨씬 짧습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란색의 길쭉한 열매로, 쉽게 껍질을 벗기면 매우 달고 무른 과육이 드러납니다. 이 열매는 수천 년 동안 열대 지방에서 인간과 다른 영장류 모두에게 사랑받아 왔습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>햇빛과 따뜻한 온도만 있다면 잘자라고, 솜털이 있는 예쁜 복숭아를 맺는 낙엽수입니다. 과거에도 인기가 많아 고대인들은 노란 문서에 복숭아 그림을 담아 서로 주고받았던 것으로 보입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n복숭아 나무는 매우 튼튼하여 자갈이 많은 지형에도 심을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>raw dessert fruits</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1730,10 +1654,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>식물학적으로 가지과에 속하는 둥글고 부드러운 맛있는 검은 밤색 과일입니다. 따뜻한 날씨에서 잘 자랍니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 블랙뷰티 가지는 섭씨 37°C~60°C에서 30% 더 빨리 자랍니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>forage grass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1770,22 +1690,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>재배된 사료용 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 소에게 먹일 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재배된 사료용 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 소에게 먹일 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>말 그대로 오렌지색의 이 열매는 껍질을 벗기기 어렵기로 악명이 높지만, 과육이 매우 많으며 상쾌한 단맛과 신맛이 나는 새콤달콤한 맛으로 유명합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크고 무겁지만, 특유의 부드러운 단맛 덕분에 요리에 잘 사용되어 왔습니다. 다양한 문화권에서 식재료뿐만 아니라 할로윈 가면이나 잭 오 랜턴으로도 사용되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>작을 수록 매운 꼬투리로, 주로 소스나 가루로 낸 조미료로 사용됩니다. 자체적인 맛은 순하지만, 내부에 포함된 캡사이신 때문에 매운 맛을 느낄 수 있습니다.\n재배중일 때는 동물들이 먹지 않는 것으로 알려져 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1794,31 +1698,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>뿌리를 주로 먹으며 특유의 식감으로 사랑받는 채소 중 하나입니다. 당분 함량에 따라 다른 품종이 되기 때문에 같은 종인 사탕무는 설탕 생산원으로 길러집니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>식물학적으로 가지 식물은 가지과에 속하는 길다란 자주색 과일입니다. 따뜻한 날씨에서 잘 자랍니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 가지 식물은 온도가 37도에서 60도 사이일 때 30% 더 빠르게 자랍니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>원뿌리 식물인 비트는 허브 같은 식물로 사람과 가축을 위해 널리 재배됩니다. 특히 영양가가 높고 역사적으로는 염료 제조에 사용되곤 했습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 비트는 비옥한 토양을 필요로 하지만, 매우 튼튼하여 한겨울 동안에도 10%의 속도로 계속 자랄 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>덩굴식물로 자연에서는 땅바닥을 기면서 줄기에서 뿌리가 나와 자랍니다. 이 특징 덕에 뿌리째 뽑지 않고도 쉽게 덩굴에서 토마토를 수확할 수 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 토마토는 과일 나무처럼 수확해도 완전히 사라지지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>직접 고안한 설명들이 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>과거에 양배추를 독한 가루제의 농약을 뿌려가며 재배한 탓인지, 현재 이 품종은 공기 중 독소와 방사능에 대한 저항력이 매우 높습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 양배추는 유독성 낙진의 영향을 받지 않으며, 다른 식물과 달리 낙진으로 인해서는 죽지 않습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기술적으로 호박은 파종과 수확이 매우 쉬운 것으로 잘 알려져 있습니다. 상당한 내구성이 있지만, 크고 무거워서 수경재배기에 담기에는 너무 부담스럽습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 호박 수확은 재배 기술에 상관없이 항상 성공합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주빛이 도는 붉은색의 달콤한 버찌입니다. 체리로도 불리는 버찌는 계절성 겨울 시즌이 필요하기 때문에, 추운 북방 문화권에서 인기 있는 과일이 되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤한 버찌를 맺는 벚꽃나무는 계절성 겨울 시즌을 필요로 하는 것으로 유명합니다. 매우 아름다우며, 다양한 문화권에서 겨울 벚꽃축제의 무대가 되곤 합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n벚꽃나무는 다른 과일 나무보다 두배 아름답고, 겨울마다 만개하는 벚꽃으로 뒤덮입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤기 나고 맛있는 빨간 사과입니다. 사과는 인류 초기부터 간식, 디저트, 그리고 과일주를 만드는 데 사용되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진한 보랏빛이 도는 매끈한 과일로 특히 신맛이 납니다. 다양하게 잼, 젤리, 과일주로 만들어 먹기도 하며, 장기 보존을 위해 말려서 건자두로 만들기도 합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt;상온에 두고 약 15일이 지나면 장기간 보관할 수 있는 말린 자두가 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프룬이라고도 불리는 건자두입니다. 오랫동안 상하지 않고 먹을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아삭아삭한 녹색 배입니다. 사과의 먼 사촌으로 비슷하지만, 배가 섬유질이 더 많은 편이고 단맛이 덜합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작고 붉은 열매로 알려진 월귤입니다. 생으로 종종 먹을 때는 신맛과 밍밍한 맛이 나지만, 요리하면 자연스러운 단맛이 나오고 훨씬 더 맛있게 먹을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색의 길쭉한 열매로, 껍질을 벗기면 매우 달고 무른 과육이 드러납니다. 이 열매는 수천 년 동안 열대지방에서 인간과 다른 영장류 모두에게 사랑받아 왔습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 그대로 오렌지색의 이 열매는 껍질 벗기기가 어렵기로 악명 높지만, 과육이 매우 많으며 신맛과 상쾌한 단맛이 조화를 이루는 새콤달콤한 맛으로 유명합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크고 무겁지만, 특유의 부드러운 단맛 덕분에 요리 재료로 잘 사용되어 왔습니다. 다양한 문화권에서 식재료뿐만 아니라 할로윈 가면이나 잭 오 랜턴으로도 사용되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약간 단단한 잎이 많은 녹색 채소로, 그대로 조리하거나 종종 잘게 썰어 발효시켜 사용됩니다. 대표적인 요리로 샐러드와 코울슬로가 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿌리 부분을 주로 먹으며 특유의 식감 덕에 사랑받는 채소 중 하나입니다. 당분 함량에 따라서 다른 품종이 되기 때문에 같은 종인 사탕무는 설탕 생산원으로 길러집니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즙이 많고 광택이 나는 연한 붉은 과일로, 일반적으로는 채소로 사용됩니다. 강하게 졸이면 내부의 산성이 부드러워져 감칠맛이 잘 느껴집니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재배된 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재배된 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두는 물이 많이 필요하여 비가 오면 잘 자랍니다. 또한, 완두콩은 두꺼운 꼬투리 만큼 긴 보존 기간을 가지는 것으로 유명합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 평소에는 다른 작물보다 효율이 떨어지지만, 비가 올 때는 성장 속도가 50% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원뿌리 식물인 비트는 사람과 가축을 위해 널리 재배됩니다. 영양가가 특히 높고 과거에는 염료 제조에 사용되곤 했습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 비트는 비옥한 토양을 필요로 하지만, 매우 튼튼하여 한겨울 동안에도 10%의 속도로 계속 자랄 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문 설명에 없던 내용들을 추가했습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 백년초 선인장은 잘못된 표현입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>림왈도에서 Grass는 잡초로 나옵니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과채류가 어색하다면 과일로 롤백해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>덩굴식물로 땅바닥을 기면서 줄기로 뿌리가 나와 자랍니다. 이 특징 덕에 뿌리째 뽑지 않고도 쉽게 토마토를 수확할 수 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 토마토는 과일 나무처럼 수확해도 완전히 사라지지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤기 나는 맛있는 빨간 사과를 맺는 나무로, 다양한 품종이 존재하지만 이 빨간 품종은 따뜻한 여름과 온화한 겨울을 선호합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솜털이 있는 예쁜 복숭아를 맺는 낙엽수로, 햇빛과 따뜻한 온도만 있다면 잘 자랍니다. 이 나무들은 과거에도 인기가 많아 고대인들은 노란 문서에 복숭아 그림을 담아 서로 주고받았던 것으로 보입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n복숭아 나무는 매우 튼튼하여 자갈이 많은 지형에도 심을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21세기를 강타한 대규모 바나나병 감염 사태에서 살아남은 품종으로 열대지방 대표적인 파초입니다. 노란색의 길쭉한 열매인 바나나가 따기 편하게 송이째로 달려 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n바나나는 한 번에 "송이"를 수확할 수 있어, 다른 나무들보다 수확 시간이 훨씬 짧습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 품종은 21세기에 멸종이 일어날 뻔한 대규모 바나나병 감염 사태에서도 살아남도록 유전자 변형되었습니다. 다른 바나나 나무처럼 한 번에 전체 "송이"를 수확할 수 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n그로 미셀 바나나는 "송이" 단위로 수확하기 때문에, 다른 과일 나무들보다 빠르게 재배합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로 미셀 바나나는 캐번디시 바나나와는 다른 독특한 맛을 가지고 있습니다. 한때는 이 세상의 모든 바나나 공급을 책임지기도 했었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식물학적으로 가지과에 속하는 둥글고 부드러운 맛있는 검은 밤색 과일입니다. 잘 자라기 위해선 따뜻한 날씨가 필요합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 블랙뷰티 가지는 섭씨 37°C~60°C에서 30% 더 빨리 자랍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재배된 사료용 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재배된 사료용 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버찌 나무가 더 직관적이면 롤백해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특유의 다소 떫은 맛을 가지고 있어 요리, 특히 과일 보존식품과 잼에 널리 사용됩니다. 많은 문화권에서는 자두를 건조하여 유통기한이 긴 말린 자두로 만듭니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt;상온에서 약 15일이 지나면 장기간 유통 가능한 말린 자두가 됩니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2221,7 +2237,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2231,7 +2249,7 @@
     <col min="4" max="4" width="24.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="64.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="53.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2255,7 +2273,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2323,7 +2341,10 @@
         <v>301</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2357,7 +2378,7 @@
         <v>304</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>385</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2408,7 +2429,7 @@
         <v>307</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2425,7 +2446,7 @@
         <v>308</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>382</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2459,7 +2480,7 @@
         <v>312</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2493,7 +2514,7 @@
         <v>314</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>337</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2527,7 +2548,7 @@
         <v>317</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2561,7 +2582,7 @@
         <v>320</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2595,7 +2616,7 @@
         <v>323</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>364</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2629,7 +2650,7 @@
         <v>325</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2663,7 +2684,7 @@
         <v>327</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2697,7 +2718,7 @@
         <v>329</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2731,7 +2752,7 @@
         <v>331</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2765,7 +2786,7 @@
         <v>333</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2785,7 +2806,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
@@ -2799,10 +2820,10 @@
         <v>335</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>81</v>
       </c>
@@ -2813,13 +2834,13 @@
         <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>83</v>
       </c>
@@ -2830,13 +2851,13 @@
         <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>85</v>
       </c>
@@ -2847,13 +2868,13 @@
         <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
@@ -2864,13 +2885,13 @@
         <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>89</v>
       </c>
@@ -2881,13 +2902,13 @@
         <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -2898,13 +2919,13 @@
         <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
@@ -2918,10 +2939,10 @@
         <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>96</v>
       </c>
@@ -2932,13 +2953,13 @@
         <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>98</v>
       </c>
@@ -2952,10 +2973,13 @@
         <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>101</v>
       </c>
@@ -2966,13 +2990,13 @@
         <v>102</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
@@ -2983,13 +3007,13 @@
         <v>104</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
@@ -3000,13 +3024,13 @@
         <v>106</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>107</v>
       </c>
@@ -3017,13 +3041,13 @@
         <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>109</v>
       </c>
@@ -3034,13 +3058,13 @@
         <v>110</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3051,7 +3075,7 @@
         <v>112</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>328</v>
@@ -3068,10 +3092,10 @@
         <v>114</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3085,7 +3109,7 @@
         <v>116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>330</v>
@@ -3102,10 +3126,10 @@
         <v>118</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>523</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3136,10 +3160,10 @@
         <v>123</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3153,10 +3177,10 @@
         <v>125</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3170,10 +3194,10 @@
         <v>127</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>391</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3190,7 +3214,7 @@
         <v>130</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3204,10 +3228,10 @@
         <v>132</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3224,7 +3248,7 @@
         <v>135</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3238,10 +3262,10 @@
         <v>137</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>522</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3258,7 +3282,7 @@
         <v>140</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3272,10 +3296,10 @@
         <v>142</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3292,7 +3316,7 @@
         <v>145</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3306,10 +3330,10 @@
         <v>147</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3326,10 +3350,10 @@
         <v>150</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3340,13 +3364,13 @@
         <v>152</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3360,10 +3384,10 @@
         <v>155</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>156</v>
       </c>
@@ -3374,13 +3398,13 @@
         <v>157</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>158</v>
       </c>
@@ -3394,10 +3418,13 @@
         <v>160</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>161</v>
       </c>
@@ -3408,13 +3435,13 @@
         <v>162</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>163</v>
       </c>
@@ -3428,10 +3455,10 @@
         <v>165</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>166</v>
       </c>
@@ -3442,13 +3469,13 @@
         <v>167</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>168</v>
       </c>
@@ -3459,13 +3486,13 @@
         <v>169</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>170</v>
       </c>
@@ -3476,13 +3503,13 @@
         <v>171</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>172</v>
       </c>
@@ -3493,13 +3520,16 @@
         <v>173</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>174</v>
       </c>
@@ -3510,13 +3540,13 @@
         <v>175</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>176</v>
       </c>
@@ -3527,13 +3557,13 @@
         <v>177</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>178</v>
       </c>
@@ -3544,13 +3574,13 @@
         <v>179</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>180</v>
       </c>
@@ -3564,10 +3594,10 @@
         <v>182</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>183</v>
       </c>
@@ -3578,13 +3608,13 @@
         <v>184</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>185</v>
       </c>
@@ -3598,7 +3628,7 @@
         <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3612,10 +3642,10 @@
         <v>189</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3629,10 +3659,10 @@
         <v>192</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3649,10 +3679,10 @@
         <v>196</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3669,7 +3699,7 @@
         <v>199</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3686,7 +3716,7 @@
         <v>193</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3703,10 +3733,10 @@
         <v>196</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3723,7 +3753,7 @@
         <v>199</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3740,7 +3770,7 @@
         <v>193</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3757,10 +3787,10 @@
         <v>196</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3777,7 +3807,7 @@
         <v>199</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3794,7 +3824,7 @@
         <v>215</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3811,7 +3841,7 @@
         <v>218</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3828,7 +3858,7 @@
         <v>221</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3845,7 +3875,7 @@
         <v>224</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3862,10 +3892,10 @@
         <v>227</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3882,10 +3912,10 @@
         <v>227</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3905,7 +3935,7 @@
         <v>230</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3922,10 +3952,10 @@
         <v>227</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3942,10 +3972,10 @@
         <v>227</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3962,10 +3992,10 @@
         <v>227</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3985,7 +4015,7 @@
         <v>235</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4002,10 +4032,10 @@
         <v>227</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4022,10 +4052,10 @@
         <v>227</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4042,10 +4072,10 @@
         <v>227</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4065,7 +4095,7 @@
         <v>240</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4085,7 +4115,7 @@
         <v>242</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -4102,10 +4132,10 @@
         <v>227</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4122,10 +4152,10 @@
         <v>227</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4145,7 +4175,7 @@
         <v>246</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4165,7 +4195,7 @@
         <v>248</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4182,10 +4212,10 @@
         <v>227</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4202,10 +4232,10 @@
         <v>227</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4222,10 +4252,10 @@
         <v>227</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4245,7 +4275,7 @@
         <v>253</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4262,10 +4292,10 @@
         <v>227</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4282,10 +4312,10 @@
         <v>227</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4305,7 +4335,7 @@
         <v>257</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4322,10 +4352,10 @@
         <v>227</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4342,10 +4372,10 @@
         <v>227</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4362,10 +4392,10 @@
         <v>227</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4385,7 +4415,7 @@
         <v>262</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4402,10 +4432,10 @@
         <v>227</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4425,7 +4455,7 @@
         <v>265</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4442,10 +4472,10 @@
         <v>227</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4462,10 +4492,10 @@
         <v>227</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4482,10 +4512,10 @@
         <v>227</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4502,10 +4532,10 @@
         <v>227</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4522,10 +4552,10 @@
         <v>227</v>
       </c>
       <c r="E128" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4545,7 +4575,7 @@
         <v>272</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4565,7 +4595,7 @@
         <v>274</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>469</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4582,10 +4612,10 @@
         <v>227</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4602,10 +4632,10 @@
         <v>227</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>477</v>
+        <v>521</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4622,10 +4652,10 @@
         <v>227</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4645,7 +4675,7 @@
         <v>279</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4662,10 +4692,10 @@
         <v>227</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4682,10 +4712,10 @@
         <v>283</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4702,10 +4732,10 @@
         <v>283</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4722,10 +4752,10 @@
         <v>283</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4742,10 +4772,10 @@
         <v>283</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4762,10 +4792,10 @@
         <v>283</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4782,10 +4812,10 @@
         <v>283</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4805,7 +4835,7 @@
         <v>290</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4822,10 +4852,10 @@
         <v>283</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4842,10 +4872,10 @@
         <v>283</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4862,10 +4892,10 @@
         <v>283</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4882,10 +4912,10 @@
         <v>283</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4902,10 +4932,10 @@
         <v>283</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/Pull Request Here/Vanilla Plants Expanded - 2134308522/Vanilla Plants Expanded - 2134308522.xlsx
+++ b/Pull Request Here/Vanilla Plants Expanded - 2134308522/Vanilla Plants Expanded - 2134308522.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124481F2-D9F8-46A0-AEC0-0C895592FFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A9E581-B6B4-4EC9-947E-9BD0E6BCF978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1190,10 +1190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>천연 방충제 역할을 할 만큼 강인한 냄새를 지닌 식용 가능한 알뿌리식물로, 요리 방법만큼이나 다양한 품종이 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 양파는 병충해에 영향을 받지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>완두콩은 잘 건조되는 특성 덕분에 기본적으로 긴 보존 기간을 가지는 것으로 유명합니다. 소량의 독성이 있으니 다른 채소처럼 익혀 먹는 게 좋습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1214,10 +1210,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>동물에게 먹힘을 피하고자 진화한 이 식물은 캡사이신을 품고 있어 섭취하면 고통스럽지만, 유독 사람에게는 고통보다는 매운 맛을 선물합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 동물들은 고추 식물은 먹지 않으며, 영양가가 전혀 없는 것으로 간주합니다. 그러나 수확된 고추는 정상적으로 먹습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사과 나무</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1278,10 +1270,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>매끈한 껍질을 가진 진한 보랏빛 과일을 맺는 무성한 나무입니다. 많은 문화권에서 자두를 말려 프룬이라고도 불리는 건자두를 만들어 장기 보존합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n자두를 상온에 두어 보존 기간이 긴 말린 자두로 만들 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>백년초 선인장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1314,18 +1302,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"해안선인장"라고 불리는 이 선인장은 뜨겁고 건조한 사막에서도 매우 풍성하게 자라는 것으로 알려져 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n백년초 선인장은 서로 가까이 심을 수 있으며, 인접한 식물의 파종을 막지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>향긋하고 아삭한 녹색 배를 맺는 튼튼한 나무로, 배나무는 물과 서늘한 날씨를 좋아 하고 그늘에서도 잘 자라는 것으로 유명합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n배나무는 지붕아래에서도 재배할 수 있으며 풍력 발전기를 가로막지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주황색 과일이 점점이 달린 무성한 아열대 나무로, 흡습이 필요할 정도의 습한 환경과 습한 토양에서도 잘 자랍니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n오렌지 나무는 주변 3타일 반경 내에 있는 강 타일 하나당 성장률이 1% 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>till</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1482,10 +1458,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>벚꽃 나무로도 알려진 사쿠라 나무는 사쿠란보라고 알려진 작은 열매를 맺습니다. 전통적으로 생으로 먹지 않았지만, 이 품종은 더 달콤하게 생산하도록 유전자 변형되었습니다. 이 품종은 매우 아름다우며, 벚꽃이 점점이 피어 매 겨울마다 만개합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n사쿠라 나무는 다른 과일 나무보다 더 아름답고, 겨울에는 벚꽃이 만개하여 진귀한 광경을 만들어 냅니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>The apricot is a fruit that resembles the peach but much smaller, pale yellow or orange with some red shades. It is mainly consumed fresh, although it is also used to make some by-products like stewed fruit, jams, juices and dried apricots. Apricots have a high concentration of vitamin C. This variety of apricot tree is quite hardy, and they can be planted in stony soil.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1522,34 +1494,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>가장 큰 호박 품종 중 하나인 자이언트 호박은 무게가 25kg에서 50kg까지 자랄 수 있습니다. 파종과 수확이 매우 쉽고 튼튼하지만, 워낙 거대해서 수경재배기에 담기에는 무리입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 자이언트 호박은 남녀노소 누구나 수확에 성공합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>천연 방충제 역할을 할 만큼 강인한 향을 품은 식용 가능한 하얀 알뿌리식물로, 이 품종은 양파의 대표적인 품종입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 흰 양파는 강인하기 때문에 병충해 따위는 무시할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>녹색 잎으로 둘러싸인 단단한 흰색 중심부를 가진 큰 둥근 식물로, 흔히 하얀 브로콜리라고 착각하기 쉬운 녹색 꽃양배추입니다. 이 품종은 공기 중 독소와 방사능에 영향을 받지 않도록 개량되었습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 콜리플라워는 유독성 낙진에도 꿋꿋하며, 다른 식물과 달리 낙진으로는 죽지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원뿌리 식물인 키오자 비트는 허브 같은 식물로 사람과 가축을 위해 널리 재배됩니다. 이 품종은 겉보기에 일반적인 비트와 같지만, 과육은 독특한 빨간색과 흰색 줄무늬를 가지고 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 키오자 비트는 비옥한 토양이 있어야 하지만, 뿌리가 튼튼하기에 한겨울 동안에도 10%의 속도로 성장할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 토마토 품종은 가지치기만 정기적으로 한다면 수확 후 추가적인 파종없이 오랫동안 덩굴을 유지할 수 있습니다. 수확할 때 가지치기를 자동으로 하기 때문에 따로 관리할 필요가 없습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 비프스테이크 토마토는 수확과 상관없이 수명이 다해야만 사라집니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단단한 사과를 맺는 나무로, 연한 녹색 껍질과 바삭하고 즙이 많은 과육을 가지고 있습니다. 이 녹색 품종은 너무 덥지않은 여름과 적당히 추운 겨울을 선호합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>살구를 맺는 장미과 벚나무속의 낙엽 소교목입니다. 현재도 가로수로 많이 심으며, 과거 고대인들이 기와 마당에 심어 꽃과 열매를 즐기기도 한 전통 정원수입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n살구 나무는 매우 튼튼하여 돌이 많은 땅에도 심을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>댐슨 자두 나무</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1558,10 +1502,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>댐슨 자두나무는, 고어로 "다마신(damascene)"이라고도 불리며, 비교적 작은 타원형 과일을 맺는 그득한 나무입니다. 열매는 건조하여 장기 보존을 위한 건자두로 만들기도 합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n댐슨 자두를 상온에 두면 유통기한이 긴 말린 자두로 변합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>gros michel banana tree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1586,10 +1526,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>붉은 열매로 점철된 낮게 자라는 덤불로, 고산지대 혹은 북위 38도 이상 고위도에서 쉽게 볼 수 있으며, 척박한 토양에서도 잘 자랍니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n월귤 덤불은 화분에서도 재배할 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>raw dessert fruits</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1630,10 +1566,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>작은 귤나무로, 열매는 미니어처 오렌지를 닮았으며 보통 그대로 먹거나 과일 샐러드에 넣어 먹습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n감귤 나무는 3타일 내에 강 타일마다 성장률이 1%p 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>black beauty aubergine plant</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1698,34 +1630,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>식물학적으로 가지 식물은 가지과에 속하는 길다란 자주색 과일입니다. 따뜻한 날씨에서 잘 자랍니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 가지 식물은 온도가 37도에서 60도 사이일 때 30% 더 빠르게 자랍니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과거에 양배추를 독한 가루제의 농약을 뿌려가며 재배한 탓인지, 현재 이 품종은 공기 중 독소와 방사능에 대한 저항력이 매우 높습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 양배추는 유독성 낙진의 영향을 받지 않으며, 다른 식물과 달리 낙진으로 인해서는 죽지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기술적으로 호박은 파종과 수확이 매우 쉬운 것으로 잘 알려져 있습니다. 상당한 내구성이 있지만, 크고 무거워서 수경재배기에 담기에는 너무 부담스럽습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 호박 수확은 재배 기술에 상관없이 항상 성공합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>자주빛이 도는 붉은색의 달콤한 버찌입니다. 체리로도 불리는 버찌는 계절성 겨울 시즌이 필요하기 때문에, 추운 북방 문화권에서 인기 있는 과일이 되었습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>달콤한 버찌를 맺는 벚꽃나무는 계절성 겨울 시즌을 필요로 하는 것으로 유명합니다. 매우 아름다우며, 다양한 문화권에서 겨울 벚꽃축제의 무대가 되곤 합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n벚꽃나무는 다른 과일 나무보다 두배 아름답고, 겨울마다 만개하는 벚꽃으로 뒤덮입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>윤기 나고 맛있는 빨간 사과입니다. 사과는 인류 초기부터 간식, 디저트, 그리고 과일주를 만드는 데 사용되었습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진한 보랏빛이 도는 매끈한 과일로 특히 신맛이 납니다. 다양하게 잼, 젤리, 과일주로 만들어 먹기도 하며, 장기 보존을 위해 말려서 건자두로 만들기도 합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt;상온에 두고 약 15일이 지나면 장기간 보관할 수 있는 말린 자두가 됩니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>프룬이라고도 불리는 건자두입니다. 오랫동안 상하지 않고 먹을 수 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1762,22 +1674,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>재배된 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재배된 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완두는 물이 많이 필요하여 비가 오면 잘 자랍니다. 또한, 완두콩은 두꺼운 꼬투리 만큼 긴 보존 기간을 가지는 것으로 유명합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 평소에는 다른 작물보다 효율이 떨어지지만, 비가 올 때는 성장 속도가 50% 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>원뿌리 식물인 비트는 사람과 가축을 위해 널리 재배됩니다. 영양가가 특히 높고 과거에는 염료 제조에 사용되곤 했습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 비트는 비옥한 토양을 필요로 하지만, 매우 튼튼하여 한겨울 동안에도 10%의 속도로 계속 자랄 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>영문 설명에 없던 내용들을 추가했습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1794,47 +1690,117 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>덩굴식물로 땅바닥을 기면서 줄기로 뿌리가 나와 자랍니다. 이 특징 덕에 뿌리째 뽑지 않고도 쉽게 토마토를 수확할 수 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 토마토는 과일 나무처럼 수확해도 완전히 사라지지 않습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤기 나는 맛있는 빨간 사과를 맺는 나무로, 다양한 품종이 존재하지만 이 빨간 품종은 따뜻한 여름과 온화한 겨울을 선호합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>솜털이 있는 예쁜 복숭아를 맺는 낙엽수로, 햇빛과 따뜻한 온도만 있다면 잘 자랍니다. 이 나무들은 과거에도 인기가 많아 고대인들은 노란 문서에 복숭아 그림을 담아 서로 주고받았던 것으로 보입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n복숭아 나무는 매우 튼튼하여 자갈이 많은 지형에도 심을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21세기를 강타한 대규모 바나나병 감염 사태에서 살아남은 품종으로 열대지방 대표적인 파초입니다. 노란색의 길쭉한 열매인 바나나가 따기 편하게 송이째로 달려 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n바나나는 한 번에 "송이"를 수확할 수 있어, 다른 나무들보다 수확 시간이 훨씬 짧습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 품종은 21세기에 멸종이 일어날 뻔한 대규모 바나나병 감염 사태에서도 살아남도록 유전자 변형되었습니다. 다른 바나나 나무처럼 한 번에 전체 "송이"를 수확할 수 있습니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n그로 미셀 바나나는 "송이" 단위로 수확하기 때문에, 다른 과일 나무들보다 빠르게 재배합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>그로 미셀 바나나는 캐번디시 바나나와는 다른 독특한 맛을 가지고 있습니다. 한때는 이 세상의 모든 바나나 공급을 책임지기도 했었습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>식물학적으로 가지과에 속하는 둥글고 부드러운 맛있는 검은 밤색 과일입니다. 잘 자라기 위해선 따뜻한 날씨가 필요합니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 블랙뷰티 가지는 섭씨 37°C~60°C에서 30% 더 빨리 자랍니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재배된 사료용 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재배된 사료용 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>버찌 나무가 더 직관적이면 롤백해주세요.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>특유의 다소 떫은 맛을 가지고 있어 요리, 특히 과일 보존식품과 잼에 널리 사용됩니다. 많은 문화권에서는 자두를 건조하여 유통기한이 긴 말린 자두로 만듭니다.\n\n&amp;lt;color=#E5E54C&gt;특성:&amp;lt;/color&gt;상온에서 약 15일이 지나면 장기간 유통 가능한 말린 자두가 됩니다.</t>
+    <t>재배된 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
+  </si>
+  <si>
+    <t>재배된 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
+  </si>
+  <si>
+    <t>천연 방충제 역할을 할 만큼 강인한 냄새를 지닌 식용 가능한 알뿌리식물로, 요리 방법만큼이나 다양한 품종이 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 양파는 병충해에 영향을 받지 않습니다.</t>
+  </si>
+  <si>
+    <t>기술적으로 호박은 파종과 수확이 매우 쉬운 것으로 잘 알려져 있습니다. 상당한 내구성이 있지만, 크고 무거워서 수경재배기에 담기에는 너무 부담스럽습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 호박 수확은 재배 기술에 상관없이 항상 성공합니다.</t>
+  </si>
+  <si>
+    <t>동물에게 먹힘을 피하고자 진화한 이 식물은 캡사이신을 품고 있어 섭취하면 고통스럽지만, 유독 사람에게는 고통보다는 매운 맛을 선물합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 동물들은 고추 식물은 먹지 않으며, 영양가가 전혀 없는 것으로 간주합니다. 그러나 수확된 고추는 정상적으로 먹습니다.</t>
+  </si>
+  <si>
+    <t>완두는 물이 많이 필요하여 비가 오면 잘 자랍니다. 또한, 완두콩은 두꺼운 꼬투리 만큼 긴 보존 기간을 가지는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 평소에는 다른 작물보다 효율이 떨어지지만, 비가 올 때는 성장 속도가 50% 증가합니다.</t>
+  </si>
+  <si>
+    <t>식물학적으로 가지 식물은 가지과에 속하는 길다란 자주색 과일입니다. 따뜻한 날씨에서 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 가지 식물은 온도가 37도에서 60도 사이일 때 30% 더 빠르게 자랍니다.</t>
+  </si>
+  <si>
+    <t>과거에 양배추를 독한 가루제의 농약을 뿌려가며 재배한 탓인지, 현재 이 품종은 공기 중 독소와 방사능에 대한 저항력이 매우 높습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 양배추는 유독성 낙진의 영향을 받지 않으며, 다른 식물과 달리 낙진으로 인해서는 죽지 않습니다.</t>
+  </si>
+  <si>
+    <t>원뿌리 식물인 비트는 사람과 가축을 위해 널리 재배됩니다. 영양가가 특히 높고 과거에는 염료 제조에 사용되곤 했습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 비트는 비옥한 토양을 필요로 하지만, 매우 튼튼하여 한겨울 동안에도 10%의 속도로 계속 자랄 수 있습니다.</t>
+  </si>
+  <si>
+    <t>덩굴식물로 땅바닥을 기면서 줄기로 뿌리가 나와 자랍니다. 이 특징 덕에 뿌리째 뽑지 않고도 쉽게 토마토를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 토마토는 과일 나무처럼 수확해도 완전히 사라지지 않습니다.</t>
+  </si>
+  <si>
+    <t>윤기 나는 맛있는 빨간 사과를 맺는 나무로, 다양한 품종이 존재하지만 이 빨간 품종은 따뜻한 여름과 온화한 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
+  </si>
+  <si>
+    <t>솜털이 있는 예쁜 복숭아를 맺는 낙엽수로, 햇빛과 따뜻한 온도만 있다면 잘 자랍니다. 이 나무들은 과거에도 인기가 많아 고대인들은 노란 문서에 복숭아 그림을 담아 서로 주고받았던 것으로 보입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n복숭아 나무는 매우 튼튼하여 자갈이 많은 지형에도 심을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>달콤한 버찌를 맺는 벚꽃나무는 계절성 겨울 시즌을 필요로 하는 것으로 유명합니다. 매우 아름다우며, 다양한 문화권에서 겨울 벚꽃축제의 무대가 되곤 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n벚꽃나무는 다른 과일 나무보다 두배 아름답고, 겨울마다 만개하는 벚꽃으로 뒤덮입니다.</t>
+  </si>
+  <si>
+    <t>매끈한 껍질을 가진 진한 보랏빛 과일을 맺는 무성한 나무입니다. 많은 문화권에서 자두를 말려 프룬이라고도 불리는 건자두를 만들어 장기 보존합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n자두를 상온에 두어 보존 기간이 긴 말린 자두로 만들 수 있습니다.</t>
+  </si>
+  <si>
+    <t>향긋하고 아삭한 녹색 배를 맺는 튼튼한 나무로, 배나무는 물과 서늘한 날씨를 좋아 하고 그늘에서도 잘 자라는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n배나무는 지붕아래에서도 재배할 수 있으며 풍력 발전기를 가로막지 않습니다.</t>
+  </si>
+  <si>
+    <t>"해안선인장"라고 불리는 이 선인장은 뜨겁고 건조한 사막에서도 매우 풍성하게 자라는 것으로 알려져 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n백년초 선인장은 서로 가까이 심을 수 있으며, 인접한 식물의 파종을 막지 않습니다.</t>
+  </si>
+  <si>
+    <t>붉은 열매로 점철된 낮게 자라는 덤불로, 고산지대 혹은 북위 38도 이상 고위도에서 쉽게 볼 수 있으며, 척박한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n월귤 덤불은 화분에서도 재배할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>21세기를 강타한 대규모 바나나병 감염 사태에서 살아남은 품종으로 열대지방 대표적인 파초입니다. 노란색의 길쭉한 열매인 바나나가 따기 편하게 송이째로 달려 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n바나나는 한 번에 "송이"를 수확할 수 있어, 다른 나무들보다 수확 시간이 훨씬 짧습니다.</t>
+  </si>
+  <si>
+    <t>주황색 과일이 점점이 달린 무성한 아열대 나무로, 흡습이 필요할 정도의 습한 환경과 습한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n오렌지 나무는 주변 3타일 반경 내에 있는 강 타일 하나당 성장률이 1% 증가합니다.</t>
+  </si>
+  <si>
+    <t>원뿌리 식물인 키오자 비트는 허브 같은 식물로 사람과 가축을 위해 널리 재배됩니다. 이 품종은 겉보기에 일반적인 비트와 같지만, 과육은 독특한 빨간색과 흰색 줄무늬를 가지고 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 키오자 비트는 비옥한 토양이 있어야 하지만, 뿌리가 튼튼하기에 한겨울 동안에도 10%의 속도로 성장할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>녹색 잎으로 둘러싸인 단단한 흰색 중심부를 가진 큰 둥근 식물로, 흔히 하얀 브로콜리라고 착각하기 쉬운 녹색 꽃양배추입니다. 이 품종은 공기 중 독소와 방사능에 영향을 받지 않도록 개량되었습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 콜리플라워는 유독성 낙진에도 꿋꿋하며, 다른 식물과 달리 낙진으로는 죽지 않습니다.</t>
+  </si>
+  <si>
+    <t>천연 방충제 역할을 할 만큼 강인한 향을 품은 식용 가능한 하얀 알뿌리식물로, 이 품종은 양파의 대표적인 품종입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 흰 양파는 강인하기 때문에 병충해 따위는 무시할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>가장 큰 호박 품종 중 하나인 자이언트 호박은 무게가 25kg에서 50kg까지 자랄 수 있습니다. 파종과 수확이 매우 쉽고 튼튼하지만, 워낙 거대해서 수경재배기에 담기에는 무리입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 자이언트 호박은 남녀노소 누구나 수확에 성공합니다.</t>
+  </si>
+  <si>
+    <t>이 토마토 품종은 가지치기만 정기적으로 한다면 수확 후 추가적인 파종없이 오랫동안 덩굴을 유지할 수 있습니다. 수확할 때 가지치기를 자동으로 하기 때문에 따로 관리할 필요가 없습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 비프스테이크 토마토는 수확과 상관없이 수명이 다해야만 사라집니다.</t>
+  </si>
+  <si>
+    <t>단단한 사과를 맺는 나무로, 연한 녹색 껍질과 바삭하고 즙이 많은 과육을 가지고 있습니다. 이 녹색 품종은 너무 덥지않은 여름과 적당히 추운 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
+  </si>
+  <si>
+    <t>벚꽃 나무로도 알려진 사쿠라 나무는 사쿠란보라고 알려진 작은 열매를 맺습니다. 전통적으로 생으로 먹지 않았지만, 이 품종은 더 달콤하게 생산하도록 유전자 변형되었습니다. 이 품종은 매우 아름다우며, 벚꽃이 점점이 피어 매 겨울마다 만개합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n사쿠라 나무는 다른 과일 나무보다 더 아름답고, 겨울에는 벚꽃이 만개하여 진귀한 광경을 만들어 냅니다.</t>
+  </si>
+  <si>
+    <t>살구를 맺는 장미과 벚나무속의 낙엽 소교목입니다. 현재도 가로수로 많이 심으며, 과거 고대인들이 기와 마당에 심어 꽃과 열매를 즐기기도 한 전통 정원수입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n살구 나무는 매우 튼튼하여 돌이 많은 땅에도 심을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>댐슨 자두나무는, 고어로 "다마신(damascene)"이라고도 불리며, 비교적 작은 타원형 과일을 맺는 그득한 나무입니다. 열매는 건조하여 장기 보존을 위한 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n댐슨 자두를 상온에 두면 유통기한이 긴 말린 자두로 변합니다.</t>
+  </si>
+  <si>
+    <t>특유의 다소 떫은 맛을 가지고 있어 요리, 특히 과일 보존식품과 잼에 널리 사용됩니다. 많은 문화권에서는 자두를 건조하여 유통기한이 긴 말린 자두로 만듭니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에서 약 15일이 지나면 장기간 유통 가능한 말린 자두가 됩니다.</t>
+  </si>
+  <si>
+    <t>이 품종은 21세기에 멸종이 일어날 뻔한 대규모 바나나병 감염 사태에서도 살아남도록 유전자 변형되었습니다. 다른 바나나 나무처럼 한 번에 전체 "송이"를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n그로 미셀 바나나는 "송이" 단위로 수확하기 때문에, 다른 과일 나무들보다 빠르게 재배합니다.</t>
+  </si>
+  <si>
+    <t>작은 귤나무로, 열매는 미니어처 오렌지를 닮았으며 보통 그대로 먹거나 과일 샐러드에 넣어 먹습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n감귤 나무는 3타일 내에 강 타일마다 성장률이 1%p 증가합니다.</t>
+  </si>
+  <si>
+    <t>식물학적으로 가지과에 속하는 둥글고 부드러운 맛있는 검은 밤색 과일입니다. 잘 자라기 위해선 따뜻한 날씨가 필요합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 블랙뷰티 가지는 섭씨 37°C~60°C에서 30% 더 빨리 자랍니다.</t>
+  </si>
+  <si>
+    <t>재배된 사료용 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
+  </si>
+  <si>
+    <t>재배된 사료용 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
+  </si>
+  <si>
+    <t>진한 보랏빛이 도는 매끈한 과일로 특히 신맛이 납니다. 다양하게 잼, 젤리, 과일주로 만들어 먹기도 하며, 장기 보존을 위해 말려서 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에 두고 약 15일이 지나면 장기간 보관할 수 있는 말린 자두가 됩니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2237,9 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2273,7 +2237,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2341,10 +2305,10 @@
         <v>301</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2378,7 +2342,7 @@
         <v>304</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2429,7 +2393,7 @@
         <v>307</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2446,7 +2410,7 @@
         <v>308</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2480,7 +2444,7 @@
         <v>312</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2514,7 +2478,7 @@
         <v>314</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2548,7 +2512,7 @@
         <v>317</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2582,7 +2546,7 @@
         <v>320</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2616,7 +2580,7 @@
         <v>323</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2650,7 +2614,7 @@
         <v>325</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2684,7 +2648,7 @@
         <v>327</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2752,7 +2716,7 @@
         <v>331</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2786,7 +2750,7 @@
         <v>333</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,7 +2784,7 @@
         <v>335</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2854,7 +2818,7 @@
         <v>339</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2888,7 +2852,7 @@
         <v>341</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2922,7 +2886,7 @@
         <v>343</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2956,7 +2920,7 @@
         <v>347</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2976,7 +2940,7 @@
         <v>355</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2993,7 +2957,7 @@
         <v>348</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -3027,7 +2991,7 @@
         <v>350</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3095,7 +3059,7 @@
         <v>358</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>366</v>
+        <v>495</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3129,7 +3093,7 @@
         <v>360</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3163,7 +3127,7 @@
         <v>362</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>372</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3197,7 +3161,7 @@
         <v>365</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3228,10 +3192,10 @@
         <v>132</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3262,10 +3226,10 @@
         <v>137</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3296,10 +3260,10 @@
         <v>142</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3330,10 +3294,10 @@
         <v>147</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3350,7 +3314,7 @@
         <v>150</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3364,10 +3328,10 @@
         <v>152</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3384,7 +3348,7 @@
         <v>155</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -3398,10 +3362,10 @@
         <v>157</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3418,10 +3382,10 @@
         <v>160</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3435,10 +3399,10 @@
         <v>162</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -3455,7 +3419,7 @@
         <v>165</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3469,10 +3433,10 @@
         <v>167</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>388</v>
+        <v>506</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3486,10 +3450,10 @@
         <v>169</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3503,10 +3467,10 @@
         <v>171</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>398</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3520,13 +3484,13 @@
         <v>173</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="F74" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="G74" s="3" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3540,10 +3504,10 @@
         <v>175</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>397</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3557,10 +3521,10 @@
         <v>177</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3574,10 +3538,10 @@
         <v>179</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>465</v>
+        <v>509</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3594,7 +3558,7 @@
         <v>182</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3608,10 +3572,10 @@
         <v>184</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3628,7 +3592,7 @@
         <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3642,10 +3606,10 @@
         <v>189</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>399</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3659,10 +3623,10 @@
         <v>192</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -3679,10 +3643,10 @@
         <v>196</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3699,7 +3663,7 @@
         <v>199</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -3716,7 +3680,7 @@
         <v>193</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3733,10 +3697,10 @@
         <v>196</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3753,7 +3717,7 @@
         <v>199</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -3770,7 +3734,7 @@
         <v>193</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -3787,10 +3751,10 @@
         <v>196</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -3807,7 +3771,7 @@
         <v>199</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -3824,7 +3788,7 @@
         <v>215</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3841,7 +3805,7 @@
         <v>218</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3858,7 +3822,7 @@
         <v>221</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -3875,7 +3839,7 @@
         <v>224</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -3892,10 +3856,10 @@
         <v>227</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -3912,10 +3876,10 @@
         <v>227</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>452</v>
+        <v>512</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3935,7 +3899,7 @@
         <v>230</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3952,10 +3916,10 @@
         <v>227</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3972,10 +3936,10 @@
         <v>227</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3992,10 +3956,10 @@
         <v>227</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4015,7 +3979,7 @@
         <v>235</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4032,10 +3996,10 @@
         <v>227</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -4052,10 +4016,10 @@
         <v>227</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4072,10 +4036,10 @@
         <v>227</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -4095,7 +4059,7 @@
         <v>240</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -4115,7 +4079,7 @@
         <v>242</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -4132,10 +4096,10 @@
         <v>227</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -4152,10 +4116,10 @@
         <v>227</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>449</v>
+        <v>515</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -4175,7 +4139,7 @@
         <v>246</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4195,7 +4159,7 @@
         <v>248</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -4212,10 +4176,10 @@
         <v>227</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4232,10 +4196,10 @@
         <v>227</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4252,10 +4216,10 @@
         <v>227</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -4275,7 +4239,7 @@
         <v>253</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4292,10 +4256,10 @@
         <v>227</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4312,10 +4276,10 @@
         <v>227</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -4335,7 +4299,7 @@
         <v>257</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -4352,10 +4316,10 @@
         <v>227</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4372,10 +4336,10 @@
         <v>227</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -4392,10 +4356,10 @@
         <v>227</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>439</v>
+        <v>518</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4415,7 +4379,7 @@
         <v>262</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4432,10 +4396,10 @@
         <v>227</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -4455,7 +4419,7 @@
         <v>265</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -4472,10 +4436,10 @@
         <v>227</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -4492,10 +4456,10 @@
         <v>227</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -4512,10 +4476,10 @@
         <v>227</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4532,10 +4496,10 @@
         <v>227</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4552,10 +4516,10 @@
         <v>227</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -4575,7 +4539,7 @@
         <v>272</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4595,7 +4559,7 @@
         <v>274</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4612,10 +4576,10 @@
         <v>227</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4632,10 +4596,10 @@
         <v>227</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4652,10 +4616,10 @@
         <v>227</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -4675,7 +4639,7 @@
         <v>279</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4692,10 +4656,10 @@
         <v>227</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -4712,10 +4676,10 @@
         <v>283</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4732,10 +4696,10 @@
         <v>283</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>476</v>
+        <v>523</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4752,10 +4716,10 @@
         <v>283</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4772,10 +4736,10 @@
         <v>283</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4792,10 +4756,10 @@
         <v>283</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4812,10 +4776,10 @@
         <v>283</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4835,7 +4799,7 @@
         <v>290</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4852,10 +4816,10 @@
         <v>283</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4872,10 +4836,10 @@
         <v>283</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4892,10 +4856,10 @@
         <v>283</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4912,10 +4876,10 @@
         <v>283</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4932,10 +4896,10 @@
         <v>283</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Pull Request Here/Vanilla Plants Expanded - 2134308522/Vanilla Plants Expanded - 2134308522.xlsx
+++ b/Pull Request Here/Vanilla Plants Expanded - 2134308522/Vanilla Plants Expanded - 2134308522.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A9E581-B6B4-4EC9-947E-9BD0E6BCF978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FE2EB2-A247-4412-B690-525DC68B6EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="527">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -598,1209 +598,1230 @@
     <t>WorkGiverDef</t>
   </si>
   <si>
+    <t>till</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+VPE_TillSoilWorkDeliverBp.gerund</t>
+  </si>
+  <si>
+    <t>tilling</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+VPE_TillSoilWorkDeliverBp.label</t>
+  </si>
+  <si>
+    <t>till soil</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+VPE_TillSoilWorkBuild.verb</t>
+  </si>
+  <si>
+    <t>VPE_TillSoilWorkBuild.verb</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+VPE_TillSoilWorkBuild.gerund</t>
+  </si>
+  <si>
+    <t>VPE_TillSoilWorkBuild.gerund</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+VPE_TillSoilWorkBuild.label</t>
+  </si>
+  <si>
+    <t>VPE_TillSoilWorkBuild.label</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+VPE_TillSoilWorkDeliverFr.verb</t>
+  </si>
+  <si>
+    <t>VPE_TillSoilWorkDeliverFr.verb</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+VPE_TillSoilWorkDeliverFr.gerund</t>
+  </si>
+  <si>
+    <t>VPE_TillSoilWorkDeliverFr.gerund</t>
+  </si>
+  <si>
+    <t>WorkGiverDef+VPE_TillSoilWorkDeliverFr.label</t>
+  </si>
+  <si>
+    <t>VPE_TillSoilWorkDeliverFr.label</t>
+  </si>
+  <si>
+    <t>Keyed+VCE_PlumsDrying</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>VCE_PlumsDrying</t>
+  </si>
+  <si>
+    <t>Plums drying</t>
+  </si>
+  <si>
+    <t>Keyed+VCE_PlumsCurrentlyFrozen</t>
+  </si>
+  <si>
+    <t>VCE_PlumsCurrentlyFrozen</t>
+  </si>
+  <si>
+    <t>These plums are frozen and will not dry into prunes</t>
+  </si>
+  <si>
+    <t>Keyed+VCE_PlumsCurrentlyRefrigerated</t>
+  </si>
+  <si>
+    <t>VCE_PlumsCurrentlyRefrigerated</t>
+  </si>
+  <si>
+    <t>These plums are refrigerated and will not dry into prunes as fast as they could (dries in {0})</t>
+  </si>
+  <si>
+    <t>Keyed+VCE_PlumsDryingCorrectly</t>
+  </si>
+  <si>
+    <t>VCE_PlumsDryingCorrectly</t>
+  </si>
+  <si>
+    <t>These plums are drying into prunes correctly (dries in {0})</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Beet.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef</t>
+  </si>
+  <si>
+    <t>RimCuisine 2 Core (Continued)</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Beet.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawBeets.label</t>
+  </si>
+  <si>
+    <t>chioggia beets</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawBeets.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Cabbage.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Cabbage.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawCabbage.label</t>
+  </si>
+  <si>
+    <t>cauliflowers</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawCabbage.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Onion.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Onion.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawOnion.label</t>
+  </si>
+  <si>
+    <t>white onions</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawOnion.description</t>
+  </si>
+  <si>
+    <t>A strong and pungent variety of onions, perfect for flavourful salads or for general cooking applications when strong flavours are desired.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Pumpkin.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Pumpkin.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawPumpkin.label</t>
+  </si>
+  <si>
+    <t>mammoth gold pumpkins</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawPumpkin.description</t>
+  </si>
+  <si>
+    <t>One of the biggest varieties of pumpkin, the mammoth gold can grow to between 25 and 50 Kg of weight. Technically a giant berry, pumpkins are renowned for being trivial to both sow and harvest.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Tomato.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Tomato.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawTomatoes.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawTomatoes.description</t>
+  </si>
+  <si>
+    <t>A variety of tomatoes with a firm, meaty, rich, vibrant red colour. Its flavour is mild, juicy and balanced compared to other varieties.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_AppleTree.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_AppleTree.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawApple.label</t>
+  </si>
+  <si>
+    <t>granny smith apples</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawApple.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_CherryTree.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_CherryTree.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawCherry.label</t>
+  </si>
+  <si>
+    <t>sakuranbo</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawCherry.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_PeachTree.label</t>
+  </si>
+  <si>
+    <t>apricot tree</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_PeachTree.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawPeach.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawPeach.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_PlumTree.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_PlumTree.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawPlum.label</t>
+  </si>
+  <si>
+    <t>damson plums</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawPlum.description</t>
+  </si>
+  <si>
+    <t>A relatively small ovoid fruit with a distinctive, somewhat astringent taste, widely used for culinary purposes, particularly in fruit preserves and jams. Many cultures also dry-age plums into prunes for long-term preservation.</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_BananaTree.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_BananaTree.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawBanana.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawBanana.description</t>
+  </si>
+  <si>
+    <t>Yellow, elongated berries. These bananas have been genetically modified to resist the fungal infections that nearly caused their extinction in old Terra. The Gros Michel variety has a distinct taste, different from that of Cavendish variety bananas.</t>
+  </si>
+  <si>
+    <t>Patches.ThingCategoryDef+VCE_Fruit.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingCategoryDef</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_OrangeTree.label</t>
+  </si>
+  <si>
+    <t>VGP Vegetable Garden</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_OrangeTree.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawOrange.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawOrange.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Eggplant.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Eggplant.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawEggplant.label</t>
+  </si>
+  <si>
+    <t>black beauty aubergines</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_RawEggplant.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Grass.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_TallGrass.label</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_Grass.description</t>
+  </si>
+  <si>
+    <t>Patches.ThingDef+VCE_TallGrass.description</t>
+  </si>
+  <si>
+    <t>Required Mods [Not chosen]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tillage is the agricultural preparation of soil by mechanical agitation of various types, increasing terrain fertility. Tilling soil can only be done on normal soil (not rich soil). When a plant is harvested on a plowed soil, the floor becomes a normal soil again and needs to be plowed again manually.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경작된 토양</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw fruits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apples</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glossy, red apples. Apples have been used as snacking food, a dessert ingredient, and brewed into cider since early mankind.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An edible juicy fruit called peach or nectarine. A ripe peach will have a fragrant aroma and be delicious eaten fresh out of hand.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiny purple-red sweet cherries. Cherries are notable for requiring a brief freezing season, as such they quickly became a favorite among northern occidental cultures.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 또는 천도라 불리는 과즙이 많은 과일입니다. 잘 익은 복숭아는 향긋한 냄새가 나며, 이때 바로 먹으면 맛이 좋습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plums</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A smooth-skinned purple fruit. Many cultures dry-age plums into prunes for long-term preservation. Instead of rotting, once the 15 days have passed the plums will dry into prunes, which are considered preserved food.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말린 자두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dried plums. Prunes take a very long time to deteriorate.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pears</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crispy green pears. While at first similar to apples, pears are slightly more fibrous and less sweet.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prickly pears</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백년초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pink, melon-like edible fruits, used historically for both snacking as well as medicine by desert natives.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bearberries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월귤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>These are small, pink berries known as bearberries. While raw bearberries possess an acidic and bland taste, after cooking a natural sweetness comes through and the results can be much more palatable.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow, elongated berries, easily peeled to reveal a deeply sweet, nearly mushy flesh inside. They have been a favorite of both humans and other primates across the tropics for millenia.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spherical and perforated, oranges are notoriously annoying to peel and quite pulpy, but known as one of the absolute juiciest fruits with a bright tang and sour aftertaste.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An edible bulb of pungent, savory taste and smell with almost as many varieties as cooking applications.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technically a giant berry, pumpkins are renowned for being trivial to both sow and harvest.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고추</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiny, spicy, crimson pods often used in sauces, relishes, or powders. While the flavor itself is mild the capsaicin contained inside means humans find them oddly addicting, if painful when consumed in mass. Animals are known to avoid eating the plant entirely.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spherical green seeds tucked safely away in a fleshy pod. Peas are notable for having potentially long shelf-lives when dried properly.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두콩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eggplants</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A bulbous purple fruit of the nightshade family. Eggplant is rarely served as a side, generally filling the role of the main component of the dish.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cabbages</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A somewhat hardy, leafy green vegetable, often chopped and then fermented or stewed.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양배추</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An herb-like vegetable widely cultivated for humans and livestock alike, notably nutritious and historically used in dye making.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beets</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A series of juicy, glossy red fruits attached by vine, used commonly as a vegetable. Strong stewing releases natural sugars and mellows out acids contained within.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivated grass. Grows anywhere there is a little light and minimally fertile ground.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Grass can be used to feed cattle, similar to haygrass. It isn't affected by blight, but can't be harvested and stored as hay can.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tall grass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivated tall grass. Grows anywhere there is a little light and minimally fertile ground. Slows down anyone moving over it.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Grass can be used to feed cattle, similar to haygrass. It isn't affected by blight, but can't be harvested and stored as hay can.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>agave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A large-leafed desert plant with edible flowers and stalks.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용설란</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식용 줄기와 꽃이 자라며, 큰 잎이 달린 사막 식물입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키 큰 잡초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onion plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An edible bulb of pungent, savory taste and smell with almost as many varieties as cooking applications.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Onion isn't affected by blight.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pumpkin plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technically a giant berry, pumpkins are renowned for being trivial to both sow and harvest. However, their durability means added weight and mass - Too cumbersome for hydroponics basins.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Pumpkin harvests will always succeed, independently of the colonist's plants skill.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiny, spicy, crimson pods often used in sauces, relishes, or powders. While the flavor itself is mild the capsaicin contained inside means humans find them oddly addicting, if painful when consumed in mass. Animals are known to avoid eating them entirely.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Animals won't eat the pepper plant, having an effective nutrition of zero. Note however that they will eat the harvested produce normally.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pea plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spherical green seeds tucked safely away in a fleshy pod. Pea plants are known to be quite thirsty, and will benefit greatly from rainfall. Peas are also notable for having potentially long shelf-lives when dried properly.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Normally less efficient than corn, rice or potatoes, peas will however receive a huge 50% growth boost if it is raining.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두콩은 잘 건조되는 특성 덕분에 기본적으로 긴 보존 기간을 가지는 것으로 유명합니다. 소량의 독성이 있으니 다른 채소처럼 익혀 먹는 게 좋습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A bulbous purple fruit of the nightshade family. Eggplant is rarely served as a side, generally filling the role of the main component of the dish. Flourishes in warm weather.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Eggplants will grow 30% faster if temperature is between 37 and 60 ºC.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A somewhat hardy, leafy green vegetable, often chopped and then fermented or stewed. This particular strain seems highly resistant to airborne toxin and radiation. \n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Cabbages are unaffected by toxic fallout and, contrary to other plants, won't die from it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An herb-like vegetable widely cultivated for humans and livestock alike, notably nutritious and historically used in dye making.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; While beets do require rich soil they are quite hearty, and will continue to grow at 10% speed through winter. They need to be planted during growing season, though.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A series of juicy, glossy red fruits attached by vine, used commonly as a vegetable. Strong stewing releases natural sugars and mellows out acids contained within. Tomatoes are easily removed from the vine without having to uproot the plant.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Tomatoes won't be destroyed on harvest, similar to fruit trees.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tree bearing glossy, red apples, while a myriad of different varieties exist this particular type favors warm summers and mild winters. Apples have been used as snacking food, a dessert ingredient, and brewed into cider since early mankind.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A deciduous tree bearing fuzzy, stone fruit known as peaches, peach trees often require full sunlight and warm temperatures. Ancient oriental cultures cultivated these trees groves at a time, noting its ability to survive in drought conditions. \n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버찌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tree bearing tiny purple-red sweet cherries. Cherry trees are notable for requiring a brief freezing season, as such their fruit quickly became a favorite among northern occidental civilizations. This particular genus is quite beautiful, speckled with pink blossoms throughout, blooming fully each winter.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nCherry trees have double beauty compared to other fruit trees.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자두 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A bushy tree bearing a smooth-skinned purple fruit. Plums are particularly tart and produced into a variety of jams, jellies, and ciders. Many cultures also dry-age plums into prunes for long-term preservation.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nPlums can be consumed raw or dried into prunes.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pear tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A stout tree bearing crispy green pears, pear trees are notable for requiring high amounts of water and cool weather, and also doing quite well in shade. While at first similar to apples, pears are slightly more fibrous and less sweet.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nPear trees can be grown indoors and they won't block wind turbines.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>More often referred to as the “prickly pear” cactus, this plant is known to be quite bountiful even in hot, dry deserts. The pads of this tall, spiny cactus bloom pink, melon-like edible fruits, used historically for both snacking as well as medicine by desert natives.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nOpuntis can be planted close to each other as they don't block sowing plants adjacent to them.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opuntia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분홍빛의 멜론같은 식용 과일로, 오래전부터 사막 지역의 원주민들의 간식뿐만이 아니라 민간요법으로도 사용되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백년초 선인장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bearberry bush</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월귤 덤불</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A low-lying bush speckled with pink berries that thrives in poor, even sandy soil. While raw bearberries possess an acidic and bland taste, after cooking a natural sweetness comes through and the results can be much more palatable.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nBearberry bushes can be grown in pots.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A broad-leafed, tall tropical tree adorned with a cluster of yellow, elongated berries succinctly known as bananas. Bananas are easily peeled to reveal a deeply sweet, nearly mushy flesh inside and have been a favorite of both humans and other primates across the tropics for millenia.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nBananas are easy to harvest, since a whole "hand" can be cut at the same time, making their harvest time much lower than other trees'.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A bushy, semi-tropical tree dotted with orange fruits well equipped for growing in humid environments and in wet soil. Spherical and perforated, oranges are notoriously annoying to peel and quite pulpy, but known as one of the absolute juiciest fruits with a bright tang and sour aftertaste.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nOrange trees receive a 1% boost to growth for each river terrain in a 3 tile radius around them.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>till</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토양 경작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말린 자두로 건조되는 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 건조 시간: 냉동되어 중단됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 건조 시간: {0} (냉장되어 느려짐)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남은 건조 시간: {0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chioggia beet plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An herb-like vegetable widely cultivated for humans and livestock alike. Though these look like ordinary beets from the outside, on the inside they have distinct red-and-white-striped flesh. These are highest on the sweetness scale. While beets do require rich soil they are quite hearty, and will continue to grow very slowly through winter. They need to be planted during growing season, though.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>키오자 비트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>An herb-like vegetable widely cultivated for humans and livestock alike. Though these look like ordinary beets from the outside, on the inside they have distinct red-and-white-striped flesh. These are highest on the sweetness scale.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cauliflower plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A large round vegetable that has a hard white centre surrounded by green leaves, naturally high in fiber and B-vitamins. This particular strain seems highly resistant to airborne toxins and radiation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜리플라워</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A large round vegetable that has a hard white centre surrounded by green leaves, naturally high in fiber and B-vitamins.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>white onion plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A strong and pungent variety of onions, perfect for flavourful salads or for general cooking applications when strong flavours are desired. Cannot suffer the effects of blight.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰 양파</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammoth gold pumpkin plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>One of the biggest varieties of pumpkin, the mammoth gold can grow to between 25 and 50 Kg of weight. Technically a giant berry, pumpkins are renowned for being trivial to both sow and harvest. However, their durability means added weight and mass - Too cumbersome for hydroponics basins.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자이언트 호박</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red beefsteak tomato plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A variety of tomatoes with a firm, meaty, rich, vibrant red colour. Its flavour is mild, juicy and balanced compared to other varieties. Tomatoes are easily removed from the vine without having to uproot the plant.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>red beefsteak tomatoes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>granny smith apple tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tree bearing hard apples, with a light green skin and crisp, juicy flesh. The flavour is tart and acidic. It remains firm when baked, making it a very popular cooking apple used in pies, where it can be sweetened.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래니 스미스 사과 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래니 스미스 사과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sakura tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠라 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also known as the cherry blossom, Sakura trees produce small fruits known as sakuranbo, small cherries that do not have much flesh beyond the seed within. Due to their bitter taste, sakuranbo are not traditionally eaten raw, but these trees have been genetically modified to produce sweeter tasting fruits. This particular genus is quite beautiful, speckled with pink blossoms throughout, blooming fully each winter.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠란보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small cherries that do not have much flesh beyond the seed within. Due to their bitter taste, sakuranbo are not traditionally eaten raw, but these fruits have been genetically modified to have a sweeter taste.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The apricot is a fruit that resembles the peach but much smaller, pale yellow or orange with some red shades. It is mainly consumed fresh, although it is also used to make some by-products like stewed fruit, jams, juices and dried apricots. Apricots have a high concentration of vitamin C. This variety of apricot tree is quite hardy, and they can be planted in stony soil.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A fruit that resembles the peach but much smaller, pale yellow or orange with some red shades. It is mainly consumed fresh, although it is also used to make some by-products like stewed fruit, jams, juices and dried apricots. Apricots have a high concentration of vitamin C.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apricots</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hard apples, with a light green skin and crisp, juicy flesh. The flavour is tart and acidic. It remains firm when baked, making it a very popular cooking apple used in pies, where it can be sweetened.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damson plum tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Damson plum tree, also archaically called the "damascene", is a bushy tree bearing a relatively small ovoid fruit with a distinctive, somewhat astringent taste, widely used for culinary purposes, particularly in fruit preserves and jams. Many cultures also dry-age plums into prunes for long-term preservation.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댐슨 자두 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댐슨 자두</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gros michel banana tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A tall tropical tree adorned with a cluster of yellow, elongated berries. These trees have been genetically modified to resist the fungal infections that nearly caused their extinction in old Terra. The Gros Michel variety has a distinct taste, different from that of Cavendish variety bananas. Bananas are easy to harvest, since a whole "hand" can be cut at the same time.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gros michel bananas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로 미셀 바나나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로 미셀 바나나 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>raw dessert fruits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대왕 토마토</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandarin tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mandarins</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A small citrus tree with fruit resembling miniature oranges, usually eaten plain or in fruit salads. Mandarins are smaller and oblate, rather than spherical, like the common oranges (which are a mandarin hybrid). The taste is considered less sour, as well as sweeter and stronger. Mandarin trees are well equipped for growing in humid environments and in wet soil.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A small citrus tree with fruit resembling miniature oranges, usually eaten plain or in fruit salads. Mandarins are smaller and oblate, rather than spherical, like the common oranges (which are a mandarin hybrid). The taste is considered less sour, as well as sweeter and stronger.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감귤 나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감귤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>black beauty aubergine plant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A bulbous, tender, tasty purplish-black fruit of the nightshade family. Aubergines or eggplants are great in a variety of dishes, and the Black Beauty variety is delicious grilled, baked and stir-fried. Flourishes in warm weather.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A bulbous, tender, tasty purplish-black fruit of the nightshade family. Aubergines or eggplants are great in a variety of dishes, and the Black Beauty variety is delicious grilled, baked and stir-fried.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙뷰티 가지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forage grass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivated forage grass. Grows anywhere there is a little light and minimally fertile ground.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultivated forage tall grass. Grows anywhere there is a little light and minimally fertile ground. Slows down anyone moving over it.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forage tall grass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 목초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한칸 띄우기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작고 붉은 열매로 알려진 월귤입니다. 생으로 종종 먹을 때는 신맛과 밍밍한 맛이 나지만, 요리하면 자연스러운 단맛이 나오고 훨씬 더 맛있게 먹을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노란색의 길쭉한 열매로, 껍질을 벗기면 매우 달고 무른 과육이 드러납니다. 이 열매는 수천 년 동안 열대지방에서 인간과 다른 영장류 모두에게 사랑받아 왔습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뿌리 부분을 주로 먹으며 특유의 식감 덕에 사랑받는 채소 중 하나입니다. 당분 함량에 따라서 다른 품종이 되기 때문에 같은 종인 사탕무는 설탕 생산원으로 길러집니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영문 설명에 없던 내용들을 추가했습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실 백년초 선인장은 잘못된 표현입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>림왈도에서 Grass는 잡초로 나옵니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버찌 나무가 더 직관적이면 롤백해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천연 방충제 역할을 할 만큼 강인한 냄새를 지닌 식용 가능한 알뿌리식물로, 요리 방법만큼이나 다양한 품종이 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 양파는 병충해에 영향을 받지 않습니다.</t>
+  </si>
+  <si>
+    <t>동물에게 먹힘을 피하고자 진화한 이 식물은 캡사이신을 품고 있어 섭취하면 고통스럽지만, 유독 사람에게는 고통보다는 매운 맛을 선물합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 동물들은 고추 식물은 먹지 않으며, 영양가가 전혀 없는 것으로 간주합니다. 그러나 수확된 고추는 정상적으로 먹습니다.</t>
+  </si>
+  <si>
+    <t>윤기 나는 맛있는 빨간 사과를 맺는 나무로, 다양한 품종이 존재하지만 이 빨간 품종은 따뜻한 여름과 온화한 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
+  </si>
+  <si>
+    <t>매끈한 껍질을 가진 진한 보랏빛 과일을 맺는 무성한 나무입니다. 많은 문화권에서 자두를 말려 프룬이라고도 불리는 건자두를 만들어 장기 보존합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n자두를 상온에 두어 보존 기간이 긴 말린 자두로 만들 수 있습니다.</t>
+  </si>
+  <si>
+    <t>"해안선인장"라고 불리는 이 선인장은 뜨겁고 건조한 사막에서도 매우 풍성하게 자라는 것으로 알려져 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n백년초 선인장은 서로 가까이 심을 수 있으며, 인접한 식물의 파종을 막지 않습니다.</t>
+  </si>
+  <si>
+    <t>붉은 열매로 점철된 낮게 자라는 덤불로, 고산지대 혹은 북위 38도 이상 고위도에서 쉽게 볼 수 있으며, 척박한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n월귤 덤불은 화분에서도 재배할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>21세기를 강타한 대규모 바나나병 감염 사태에서 살아남은 품종으로 열대지방 대표적인 파초입니다. 노란색의 길쭉한 열매인 바나나가 따기 편하게 송이째로 달려 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n바나나는 한 번에 "송이"를 수확할 수 있어, 다른 나무들보다 수확 시간이 훨씬 짧습니다.</t>
+  </si>
+  <si>
+    <t>주황색 과일이 점점이 달린 무성한 아열대 나무로, 흡습이 필요할 정도의 습한 환경과 습한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n오렌지 나무는 주변 3타일 반경 내에 있는 강 타일 하나당 성장률이 1% 증가합니다.</t>
+  </si>
+  <si>
+    <t>천연 방충제 역할을 할 만큼 강인한 향을 품은 식용 가능한 하얀 알뿌리식물로, 이 품종은 양파의 대표적인 품종입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 흰 양파는 강인하기 때문에 병충해 따위는 무시할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>가장 큰 호박 품종 중 하나인 자이언트 호박은 무게가 25kg에서 50kg까지 자랄 수 있습니다. 파종과 수확이 매우 쉽고 튼튼하지만, 워낙 거대해서 수경재배기에 담기에는 무리입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 자이언트 호박은 남녀노소 누구나 수확에 성공합니다.</t>
+  </si>
+  <si>
+    <t>단단한 사과를 맺는 나무로, 연한 녹색 껍질과 바삭하고 즙이 많은 과육을 가지고 있습니다. 이 녹색 품종은 너무 덥지않은 여름과 적당히 추운 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
+  </si>
+  <si>
+    <t>댐슨 자두나무는, 고어로 "다마신(damascene)"이라고도 불리며, 비교적 작은 타원형 과일을 맺는 그득한 나무입니다. 열매는 건조하여 장기 보존을 위한 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n댐슨 자두를 상온에 두면 유통기한이 긴 말린 자두로 변합니다.</t>
+  </si>
+  <si>
+    <t>진한 보랏빛이 도는 매끈한 과일로 특히 신맛이 납니다. 다양하게 잼, 젤리, 과일주로 만들어 먹기도 하며, 장기 보존을 위해 말려서 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에 두고 약 15일이 지나면 장기간 보관할 수 있는 말린 자두가 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거에 양배추를 독한 가루제의 농약을 뿌려가며 재배한 탓인지, 현재 이 품종은 공기 중 독소와 방사능에 대한 저항력이 매우 높습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 양배추는 유독성 낙진의 영향을 받지 않으며, 다른 식물과 달리 낙진으로 인해서는 죽지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생과일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지는 주로 채소로 여겨지고, 일반적으로 반찬보다는 메인 요리로 사용될 때 맛이 좋습니다. 요리법에 따라 평가가 상당히 갈리는 식재료입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크고 무겁지만, 특유의 부드러운 단맛 덕분에 채소로 잘 사용되어 왔습니다. 다양한 문화권에서 식재료뿐만 아니라 할로윈 가면이나 잭 오 랜턴으로도 사용되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>톡 쏘는 단맛과 고소한 향을 지녀 어느 요리든 들어가는 채소입니다. 자연스러운 맛을 위해서는 사실상 필수적으로 넣는 식재료입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아삭아삭한 녹색 과일입니다. 사과의 먼 사촌으로 비슷하지만, 배가 섬유질이 더 많은 편이고 단맛이 덜합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주빛이 도는 붉은색의 달콤한 열매입니다. 체리로도 불리는 버찌는 계절성 겨울 시즌이 필요하기 때문에, 추운 북방 문화권에서 인기 있는 과일이 되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤기 나고 맛있는 빨간 과일입니다. 사과는 인류 초기부터 간식, 디저트, 그리고 과일주를 만드는 데 사용되었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프룬이라고도 불리는 건과일입니다. 오랫동안 상하지 않고 먹을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소로 여겨지는 작을 수록 매운 꼬투리로, 주로 소스나 가루로 낸 조미료로 사용됩니다. 자체적인 맛은 순하지만, 내부에 포함된 캡사이신 때문에 매운 맛을 느낄 수 있습니다.\n재배중일 때는 동물들이 먹지 않는 것으로 알려져 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>즙이 많고 광택이 나는 연한 붉은 과일로, 일반적으로 채소로 사용됩니다. 강하게 졸이면 내부의 산성이 부드러워져 감칠맛이 잘 느껴집니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>약간 단단한 잎이 많은 녹색 채소로, 그대로 조리되거나 종종 잘게 썰어 드레싱을 버무려 제공됩니다. 대표적인 요리로 샐러드와 코울슬로가 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두는 물이 많이 필요하여 비가 오면 잘 자랍니다. 또한, 완두콩은 두꺼운 꼬투리 만큼 긴 보존 기간을 가지는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 평소에는 다른 작물보다 효율이 떨어지지만, 비가 올 때는 성장 속도가 50% 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원뿌리 식물인 키오자 비트는 허브 같은 식물로 사람과 가축을 위해 널리 재배됩니다. 이 품종은 겉보기에 일반적인 비트와 같지만, 과육은 독특한 빨간색과 흰색 줄무늬를 가지고 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 키오자 비트는 비옥한 토양이 있어야 하지만, 뿌리가 튼튼하기에 한겨울 동안에도 10%의 속도로 성장할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹색 잎으로 둘러싸인 단단한 흰색 중심부를 가진 큰 둥근 식물로, 흔히 하얀 브로콜리라고 착각하기 쉬운 꽃양배추입니다. 이 품종은 공기 중 독소와 방사능에 영향을 받지 않도록 개량되었습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 콜리플라워는 유독성 낙진에도 꿋꿋하며, 다른 식물과 달리 낙진으로는 죽지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 비트입니다. 겉으로는 일반적인 비트와 같지만, 독특한 빨간색과 흰색 줄무늬의 과육을 가지고 있으며 맛도 훨씬 답니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 양배추입니다. 콜리플라워는 섬유질과 비타민 B가 풍부하며 식감이 아삭아삭하고 약간 탱탱한 느낌이 드며 전체적으로 부드럽습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 양파입니다. 가장 흔히 볼 수 있는 양파로 톡 쏘는 단맛과 고소한 향을 지녀 어느 요리에든 환영을 받습니다. 자연스러운 맛을 내려고 한다면 늘 선택되는 식재료입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 정말 거대한 호박입니다. 무게와 달리 부드러운 단맛이 나기에 다양한 요리에 사용되어 왔습니다. 다양한 문화권에서 할로윈 데이 때 호박 머리 기사로 사용하기에 적합했습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>익히지 않은 토마토입니다. 단단하고 육질이 풍부하며 선명한 붉은색을 띤 품종입니다. 맛은 다른 토마토에 비해 순하고 즙이 많으며 균형 잡혀 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 단단한 과일은 연한 녹색 껍질이 특징입니다. 일반 사과보다는 좀 더 신맛이 납니다. 구워도 단단하여 요리하기에 매우 인기 있는 사과입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃 나무로도 알려진 사쿠라 나무는 사쿠란보라고 알려진 작은 열매를 맺습니다. 전통적으로 생으로 먹지 않았지만, 이 품종은 더 달콤하게 생산하도록 유전자 변형되었습니다. 이 품종은 매우 아름다우며, 벚꽃이 점점이 피어 매 겨울마다 만개합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n사쿠라 나무는 다른 과일 나무보다 더 아름답고, 겨울에는 벚꽃이 만개하여 진귀한 광경을 만들어 냅니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사쿠란보는 씨를 제외하면 과육이 많지 않은 작은 버찌 열매입니다. 과거에는 쓴맛 때문에 생으로 먹지 않지만, 유전자 변형으로 더 달콤한 맛의 열매로 재탄생했고 현재는 조리없이 맛있게 먹을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구를 맺는 장미과 벚나무속의 낙엽 소교목입니다. 현재도 가로수로 많이 심으며, 과거 고대인들이 기와 마당에 심어 꽃과 열매를 즐기기도 한 전통 정원수입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n살구 나무는 매우 튼튼하여 돌이 많은 땅에도 심을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구는 연한 주황색을 띠는 과일로, 복숭아와 비슷하지만 이보다는 훨씬 작습니다. 조리없이도 많이 먹으며, 잼과 주스같은 일부 부산물을 만드는 데도 사용되곤 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 과일은 특유의 다소 떫은 맛을 가지고 있어 요리, 특히 보존식품으로 널리 사용됩니다. 많은 문화권에서는 자두를 건조하여 유통기한이 긴 말린 자두로 만듭니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에서 약 15일이 지나면 장기간 유통 가능한 말린 자두가 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 품종은 21세기에 멸종이 일어날 뻔한 대규모 바나나병 감염 사태에서도 살아남도록 유전자 변형되었습니다. 다른 바나나 나무처럼 한 번에 전체 "송이"를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n그로 미셀 바나나는 "송이" 단위로 수확하기 때문에, 다른 과일 나무들보다 빠르게 재배합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 노란색 열매는 캐번디시 바나나와는 다른 독특한 맛을 가지고 있습니다. 한때는 이 세상의 모든 바나나 공급을 책임지기도 했었습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작은 귤나무로, 열매는 미니어처 오렌지를 닮았으며 보통 그대로 먹거나 과일 샐러드에 넣어 먹습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n감귤 나무는 3타일 내에 강 타일마다 성장률이 1%p 증가합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 열매는 일반 오렌지보다 작고 둥글납작합니다. 맛은 덜 시고 더 달며 강합니다. 참고로 귤은 작을수록 더 맛있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디저트 생과일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술적으로 호박은 파종과 수확이 매우 쉬운 것으로 잘 알려져 있습니다. 상당한 내구성이 있지만, 크고 무거워서 수경재배기에 담기에는 너무 부담스럽습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 호박 수확은 재배 기술에 상관없이 항상 성공합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소로 분류되지만, 식물학적으로 가지 식물은 가지과에 속하는 길다란 자주색 과일입니다. 따뜻한 날씨에서 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 가지 식물은 온도가 37도에서 60도 사이일 때 30% 더 빠르게 자랍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소로 분류되지만, 식물학적으로 이 식물은 가지과에 속하는 과일로 둥글고 검은 밤색이 특징입니다. 잘 자라기 위해선 따뜻한 날씨가 필요합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 블랙뷰티 가지는 섭씨 37°C~60°C에서 30% 더 빨리 자랍니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 토마토 품종은 가지치기만 정기적으로 한다면 수확 후 추가적인 파종없이 오랫동안 덩굴을 유지할 수 있습니다. 수확할 때 가지치기를 자동으로 하기 때문에 따로 관리할 필요가 없습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 대왕 토마토는 수확하여도 덩굴이 남아 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>덩굴식물로 땅바닥을 기면서 줄기로 뿌리가 나와 자랍니다. 이 특징 덕에 뿌리째 뽑지 않고도 쉽게 토마토를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 토마토는 수확과 상관없이 수명이 다해야만 사라집니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원뿌리 식물인 비트는 사람과 가축을 위해 널리 재배됩니다. 영양가가 특히 높고 과거에는 염료 제조에 사용되곤 했습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 비트는 비옥한 토양을 필요로 하지만, 매우 튼튼하여 한겨울 동안에도 10%의 속도로 계속 자랄 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경작은 다양한 방식으로 토양을 뒤엎어 농사를 준비하는 과정으로, 지형을 비옥하게 합니다. 경작은 이미 기름진 토양이 아닌 토양에서 수행할 수 있습니다.\n\n경작된 토양에서 작물을 수확하면 원래의 토양으로 되돌아가며, 다시 수동으로 경작해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재배된 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 수확하여 보관할 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재배된 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 수확하여 보관할 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재배된 사료용 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 수확하여 보관할 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재배된 사료용 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 수확하여 보관할 수는 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 그대로 오렌지색의 이 열매는 껍질 벗기기가 어렵기로 악명 높지만, 과육이 매우 많으며 신맛과 상쾌한 단맛이 조화를 이루는 새콤달콤한 맛으로 인상적입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>향긋하고 아삭한 녹색 배를 맺는 튼튼한 나무로, 배나무는 물과 서늘한 날씨를 좋아 하고 그늘에서도 잘 자라는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n배나무는 지붕아래에서도 재배할 수 있으며 풍력 발전기를 가로막지 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤한 버찌를 맺는 벚꽃나무는 계절성 겨울 시즌이 필요합니다. 미관상 매우 아름다우며, 다양한 문화권에서 겨울 벚꽃축제의 무대가 되곤 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n벚꽃나무는 다른 과일 나무보다 두배 아름답고, 겨울마다 만개하는 벚꽃으로 뒤덮입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>솜털이 있는 예쁜 복숭아를 맺는 낙엽수로, 햇빛과 따뜻한 온도만 있다면 잘 자랍니다. 이 나무들은 과거에도 인기가 많아 고대인들은 노란 문서에 복숭아 그림을 담아 서로 주고받았던 것으로 보입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n복숭아 나무는 매우 튼튼하여 자갈이 많은 지형에도 심을 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랙뷰티 가지는 다양한 요리에 채소로 넣기 좋으며, 그릴에 구워 먹거나, 오븐에 구워 먹거나, 볶아 먹어야 맛있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPE_TillSoilWorkDeliverBp.gerund</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPE_TillSoilWorkDeliverBp.label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>VPE_TillSoilWorkDeliverBp.verb</t>
-  </si>
-  <si>
-    <t>till</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+VPE_TillSoilWorkDeliverBp.gerund</t>
-  </si>
-  <si>
-    <t>VPE_TillSoilWorkDeliverBp.gerund</t>
-  </si>
-  <si>
-    <t>tilling</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+VPE_TillSoilWorkDeliverBp.label</t>
-  </si>
-  <si>
-    <t>VPE_TillSoilWorkDeliverBp.label</t>
-  </si>
-  <si>
-    <t>till soil</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+VPE_TillSoilWorkBuild.verb</t>
-  </si>
-  <si>
-    <t>VPE_TillSoilWorkBuild.verb</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+VPE_TillSoilWorkBuild.gerund</t>
-  </si>
-  <si>
-    <t>VPE_TillSoilWorkBuild.gerund</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+VPE_TillSoilWorkBuild.label</t>
-  </si>
-  <si>
-    <t>VPE_TillSoilWorkBuild.label</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+VPE_TillSoilWorkDeliverFr.verb</t>
-  </si>
-  <si>
-    <t>VPE_TillSoilWorkDeliverFr.verb</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+VPE_TillSoilWorkDeliverFr.gerund</t>
-  </si>
-  <si>
-    <t>VPE_TillSoilWorkDeliverFr.gerund</t>
-  </si>
-  <si>
-    <t>WorkGiverDef+VPE_TillSoilWorkDeliverFr.label</t>
-  </si>
-  <si>
-    <t>VPE_TillSoilWorkDeliverFr.label</t>
-  </si>
-  <si>
-    <t>Keyed+VCE_PlumsDrying</t>
-  </si>
-  <si>
-    <t>Keyed</t>
-  </si>
-  <si>
-    <t>VCE_PlumsDrying</t>
-  </si>
-  <si>
-    <t>Plums drying</t>
-  </si>
-  <si>
-    <t>Keyed+VCE_PlumsCurrentlyFrozen</t>
-  </si>
-  <si>
-    <t>VCE_PlumsCurrentlyFrozen</t>
-  </si>
-  <si>
-    <t>These plums are frozen and will not dry into prunes</t>
-  </si>
-  <si>
-    <t>Keyed+VCE_PlumsCurrentlyRefrigerated</t>
-  </si>
-  <si>
-    <t>VCE_PlumsCurrentlyRefrigerated</t>
-  </si>
-  <si>
-    <t>These plums are refrigerated and will not dry into prunes as fast as they could (dries in {0})</t>
-  </si>
-  <si>
-    <t>Keyed+VCE_PlumsDryingCorrectly</t>
-  </si>
-  <si>
-    <t>VCE_PlumsDryingCorrectly</t>
-  </si>
-  <si>
-    <t>These plums are drying into prunes correctly (dries in {0})</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Beet.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef</t>
-  </si>
-  <si>
-    <t>RimCuisine 2 Core (Continued)</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Beet.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawBeets.label</t>
-  </si>
-  <si>
-    <t>chioggia beets</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawBeets.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Cabbage.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Cabbage.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawCabbage.label</t>
-  </si>
-  <si>
-    <t>cauliflowers</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawCabbage.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Onion.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Onion.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawOnion.label</t>
-  </si>
-  <si>
-    <t>white onions</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawOnion.description</t>
-  </si>
-  <si>
-    <t>A strong and pungent variety of onions, perfect for flavourful salads or for general cooking applications when strong flavours are desired.</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Pumpkin.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Pumpkin.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawPumpkin.label</t>
-  </si>
-  <si>
-    <t>mammoth gold pumpkins</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawPumpkin.description</t>
-  </si>
-  <si>
-    <t>One of the biggest varieties of pumpkin, the mammoth gold can grow to between 25 and 50 Kg of weight. Technically a giant berry, pumpkins are renowned for being trivial to both sow and harvest.</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Tomato.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Tomato.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawTomatoes.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawTomatoes.description</t>
-  </si>
-  <si>
-    <t>A variety of tomatoes with a firm, meaty, rich, vibrant red colour. Its flavour is mild, juicy and balanced compared to other varieties.</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_AppleTree.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_AppleTree.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawApple.label</t>
-  </si>
-  <si>
-    <t>granny smith apples</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawApple.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_CherryTree.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_CherryTree.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawCherry.label</t>
-  </si>
-  <si>
-    <t>sakuranbo</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawCherry.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_PeachTree.label</t>
-  </si>
-  <si>
-    <t>apricot tree</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_PeachTree.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawPeach.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawPeach.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_PlumTree.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_PlumTree.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawPlum.label</t>
-  </si>
-  <si>
-    <t>damson plums</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawPlum.description</t>
-  </si>
-  <si>
-    <t>A relatively small ovoid fruit with a distinctive, somewhat astringent taste, widely used for culinary purposes, particularly in fruit preserves and jams. Many cultures also dry-age plums into prunes for long-term preservation.</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_BananaTree.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_BananaTree.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawBanana.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawBanana.description</t>
-  </si>
-  <si>
-    <t>Yellow, elongated berries. These bananas have been genetically modified to resist the fungal infections that nearly caused their extinction in old Terra. The Gros Michel variety has a distinct taste, different from that of Cavendish variety bananas.</t>
-  </si>
-  <si>
-    <t>Patches.ThingCategoryDef+VCE_Fruit.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingCategoryDef</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_OrangeTree.label</t>
-  </si>
-  <si>
-    <t>VGP Vegetable Garden</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_OrangeTree.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawOrange.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawOrange.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Eggplant.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Eggplant.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawEggplant.label</t>
-  </si>
-  <si>
-    <t>black beauty aubergines</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_RawEggplant.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Grass.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_TallGrass.label</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_Grass.description</t>
-  </si>
-  <si>
-    <t>Patches.ThingDef+VCE_TallGrass.description</t>
-  </si>
-  <si>
-    <t>Required Mods [Not chosen]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tillage is the agricultural preparation of soil by mechanical agitation of various types, increasing terrain fertility. Tilling soil can only be done on normal soil (not rich soil). When a plant is harvested on a plowed soil, the floor becomes a normal soil again and needs to be plowed again manually.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경작은 다양한 방식으로 뒤엎어 토양을 농업적으로 준비하는 과정으로, 지형의 비옥도를 증가시킵니다. 경작은 기름진 토양이 아닌 일반 토양에서만 수행할 수 있습니다.\n\n경작된 토양에서 작물을 수확하면 바닥이 일반 토양으로 되돌아가며, 다시 수동으로 경작해야 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경작된 토양</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw fruits</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apples</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Glossy, red apples. Apples have been used as snacking food, a dessert ingredient, and brewed into cider since early mankind.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>복숭아</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>An edible juicy fruit called peach or nectarine. A ripe peach will have a fragrant aroma and be delicious eaten fresh out of hand.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cherries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiny purple-red sweet cherries. Cherries are notable for requiring a brief freezing season, as such they quickly became a favorite among northern occidental cultures.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>복숭아 또는 천도라 불리는 과즙이 많은 과일입니다. 잘 익은 복숭아는 향긋한 냄새가 나며, 이때 바로 먹으면 맛이 좋습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>plums</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A smooth-skinned purple fruit. Many cultures dry-age plums into prunes for long-term preservation. Instead of rotting, once the 15 days have passed the plums will dry into prunes, which are considered preserved food.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>말린 자두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dried plums. Prunes take a very long time to deteriorate.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pears</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crispy green pears. While at first similar to apples, pears are slightly more fibrous and less sweet.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>prickly pears</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백년초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pink, melon-like edible fruits, used historically for both snacking as well as medicine by desert natives.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bearberries</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>월귤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>These are small, pink berries known as bearberries. While raw bearberries possess an acidic and bland taste, after cooking a natural sweetness comes through and the results can be much more palatable.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yellow, elongated berries, easily peeled to reveal a deeply sweet, nearly mushy flesh inside. They have been a favorite of both humans and other primates across the tropics for millenia.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spherical and perforated, oranges are notoriously annoying to peel and quite pulpy, but known as one of the absolute juiciest fruits with a bright tang and sour aftertaste.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>An edible bulb of pungent, savory taste and smell with almost as many varieties as cooking applications.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Technically a giant berry, pumpkins are renowned for being trivial to both sow and harvest.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고추</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiny, spicy, crimson pods often used in sauces, relishes, or powders. While the flavor itself is mild the capsaicin contained inside means humans find them oddly addicting, if painful when consumed in mass. Animals are known to avoid eating the plant entirely.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>peas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spherical green seeds tucked safely away in a fleshy pod. Peas are notable for having potentially long shelf-lives when dried properly.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완두콩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eggplants</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A bulbous purple fruit of the nightshade family. Eggplant is rarely served as a side, generally filling the role of the main component of the dish.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cabbages</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A somewhat hardy, leafy green vegetable, often chopped and then fermented or stewed.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양배추</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>An herb-like vegetable widely cultivated for humans and livestock alike, notably nutritious and historically used in dye making.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>beets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A series of juicy, glossy red fruits attached by vine, used commonly as a vegetable. Strong stewing releases natural sugars and mellows out acids contained within.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cultivated grass. Grows anywhere there is a little light and minimally fertile ground.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Grass can be used to feed cattle, similar to haygrass. It isn't affected by blight, but can't be harvested and stored as hay can.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tall grass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cultivated tall grass. Grows anywhere there is a little light and minimally fertile ground. Slows down anyone moving over it.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Grass can be used to feed cattle, similar to haygrass. It isn't affected by blight, but can't be harvested and stored as hay can.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>agave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A large-leafed desert plant with edible flowers and stalks.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>용설란</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식용 줄기와 꽃이 자라며, 큰 잎이 달린 사막 식물입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>잡초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키 큰 잡초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>onion plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>An edible bulb of pungent, savory taste and smell with almost as many varieties as cooking applications.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Onion isn't affected by blight.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pumpkin plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Technically a giant berry, pumpkins are renowned for being trivial to both sow and harvest. However, their durability means added weight and mass - Too cumbersome for hydroponics basins.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Pumpkin harvests will always succeed, independently of the colonist's plants skill.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>톡 쏘는 단맛과 고소한 향을 지녀 어느 요리든 들어가는 식재료입니다. 자연스러운 맛을 위해서는 사실상 필수적으로 넣는 재료입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tiny, spicy, crimson pods often used in sauces, relishes, or powders. While the flavor itself is mild the capsaicin contained inside means humans find them oddly addicting, if painful when consumed in mass. Animals are known to avoid eating them entirely.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Animals won't eat the pepper plant, having an effective nutrition of zero. Note however that they will eat the harvested produce normally.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pea plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spherical green seeds tucked safely away in a fleshy pod. Pea plants are known to be quite thirsty, and will benefit greatly from rainfall. Peas are also notable for having potentially long shelf-lives when dried properly.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Normally less efficient than corn, rice or potatoes, peas will however receive a huge 50% growth boost if it is raining.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완두콩은 잘 건조되는 특성 덕분에 기본적으로 긴 보존 기간을 가지는 것으로 유명합니다. 소량의 독성이 있으니 다른 채소처럼 익혀 먹는 게 좋습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A bulbous purple fruit of the nightshade family. Eggplant is rarely served as a side, generally filling the role of the main component of the dish. Flourishes in warm weather.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Eggplants will grow 30% faster if temperature is between 37 and 60 ºC.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A somewhat hardy, leafy green vegetable, often chopped and then fermented or stewed. This particular strain seems highly resistant to airborne toxin and radiation. \n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Cabbages are unaffected by toxic fallout and, contrary to other plants, won't die from it.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>An herb-like vegetable widely cultivated for humans and livestock alike, notably nutritious and historically used in dye making.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; While beets do require rich soil they are quite hearty, and will continue to grow at 10% speed through winter. They need to be planted during growing season, though.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A series of juicy, glossy red fruits attached by vine, used commonly as a vegetable. Strong stewing releases natural sugars and mellows out acids contained within. Tomatoes are easily removed from the vine without having to uproot the plant.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; Tomatoes won't be destroyed on harvest, similar to fruit trees.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A tree bearing glossy, red apples, while a myriad of different varieties exist this particular type favors warm summers and mild winters. Apples have been used as snacking food, a dessert ingredient, and brewed into cider since early mankind.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>복숭아 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A deciduous tree bearing fuzzy, stone fruit known as peaches, peach trees often require full sunlight and warm temperatures. Ancient oriental cultures cultivated these trees groves at a time, noting its ability to survive in drought conditions. \n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버찌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A tree bearing tiny purple-red sweet cherries. Cherry trees are notable for requiring a brief freezing season, as such their fruit quickly became a favorite among northern occidental civilizations. This particular genus is quite beautiful, speckled with pink blossoms throughout, blooming fully each winter.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nCherry trees have double beauty compared to other fruit trees.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벚꽃 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자두 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A bushy tree bearing a smooth-skinned purple fruit. Plums are particularly tart and produced into a variety of jams, jellies, and ciders. Many cultures also dry-age plums into prunes for long-term preservation.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nPlums can be consumed raw or dried into prunes.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pear tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A stout tree bearing crispy green pears, pear trees are notable for requiring high amounts of water and cool weather, and also doing quite well in shade. While at first similar to apples, pears are slightly more fibrous and less sweet.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nPear trees can be grown indoors and they won't block wind turbines.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>More often referred to as the “prickly pear” cactus, this plant is known to be quite bountiful even in hot, dry deserts. The pads of this tall, spiny cactus bloom pink, melon-like edible fruits, used historically for both snacking as well as medicine by desert natives.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nOpuntis can be planted close to each other as they don't block sowing plants adjacent to them.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>opuntia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>분홍빛의 멜론같은 식용 과일로, 오래전부터 사막 지역의 원주민들의 간식뿐만이 아니라 민간요법으로도 사용되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백년초 선인장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bearberry bush</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>월귤 덤불</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A low-lying bush speckled with pink berries that thrives in poor, even sandy soil. While raw bearberries possess an acidic and bland taste, after cooking a natural sweetness comes through and the results can be much more palatable.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nBearberry bushes can be grown in pots.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A broad-leafed, tall tropical tree adorned with a cluster of yellow, elongated berries succinctly known as bananas. Bananas are easily peeled to reveal a deeply sweet, nearly mushy flesh inside and have been a favorite of both humans and other primates across the tropics for millenia.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nBananas are easy to harvest, since a whole "hand" can be cut at the same time, making their harvest time much lower than other trees'.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A bushy, semi-tropical tree dotted with orange fruits well equipped for growing in humid environments and in wet soil. Spherical and perforated, oranges are notoriously annoying to peel and quite pulpy, but known as one of the absolute juiciest fruits with a bright tang and sour aftertaste.\n\n&lt;color=#E5E54C&gt;Gameplay effect:&lt;/color&gt; All fruit trees take about four times as much space as regular crops, take a long time to grow and produce fruits that can be eaten raw. They aren't destroyed after harvesting but have a limited lifespan and will eventually need to be replanted.\n\nOrange trees receive a 1% boost to growth for each river terrain in a 3 tile radius around them.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>till</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>토양 경작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>말린 자두로 건조되는 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 건조 시간: 냉동되어 중단됨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 건조 시간: {0} (냉장되어 느려짐)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남은 건조 시간: {0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chioggia beet plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>An herb-like vegetable widely cultivated for humans and livestock alike. Though these look like ordinary beets from the outside, on the inside they have distinct red-and-white-striped flesh. These are highest on the sweetness scale. While beets do require rich soil they are quite hearty, and will continue to grow very slowly through winter. They need to be planted during growing season, though.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>키오자 비트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>An herb-like vegetable widely cultivated for humans and livestock alike. Though these look like ordinary beets from the outside, on the inside they have distinct red-and-white-striped flesh. These are highest on the sweetness scale.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>겉으로는 일반적인 비트와 같지만, 독특한 빨간색과 흰색 줄무늬의 과육을 가지고 있으며 맛도 훨씬 답니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cauliflower plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A large round vegetable that has a hard white centre surrounded by green leaves, naturally high in fiber and B-vitamins. This particular strain seems highly resistant to airborne toxins and radiation.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜리플라워</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A large round vegetable that has a hard white centre surrounded by green leaves, naturally high in fiber and B-vitamins.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜리플라워는 섬유질과 비타민 B가 풍부하며 식감이 아삭아삭하고 약간 탱탱한 느낌이 드며 전체적으로 부드럽습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>white onion plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A strong and pungent variety of onions, perfect for flavourful salads or for general cooking applications when strong flavours are desired. Cannot suffer the effects of blight.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흰 양파</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mammoth gold pumpkin plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>One of the biggest varieties of pumpkin, the mammoth gold can grow to between 25 and 50 Kg of weight. Technically a giant berry, pumpkins are renowned for being trivial to both sow and harvest. However, their durability means added weight and mass - Too cumbersome for hydroponics basins.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자이언트 호박</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>red beefsteak tomato plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 흔히 볼 수 있는 양파로 톡 쏘는 단맛과 고소한 향을 지녀 어느 요리에든 환영을 받습니다. 자연스러운 맛을 내려고 한다면 늘 선택되는 식재료입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 거대한 호박입니다. 무게와 달리 부드러운 단맛이 나기에 다양한 요리에 사용되어 왔습니다. 다양한 문화권에서 할로윈 데이 때 호박 머리 기사로 사용하기에 적합했습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A variety of tomatoes with a firm, meaty, rich, vibrant red colour. Its flavour is mild, juicy and balanced compared to other varieties. Tomatoes are easily removed from the vine without having to uproot the plant.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>red beefsteak tomatoes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>단단하고 육질이 풍부하며 선명한 붉은색을 띤 토마토 품종입니다. 이 품종의 맛은 다른 품종에 비해 순하고 즙이 많으며 균형 잡혀 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>granny smith apple tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A tree bearing hard apples, with a light green skin and crisp, juicy flesh. The flavour is tart and acidic. It remains firm when baked, making it a very popular cooking apple used in pies, where it can be sweetened.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래니 스미스 사과 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래니 스미스 사과</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 단단한 사과는 연한 녹색 껍질이 특징입니다. 일반 사과보다는 좀 더 신맛이 납니다. 구워도 단단하여 파이에 설탕을 첨가해 요리하기에 매우 인기 있는 사과입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sakura tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사쿠라 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Also known as the cherry blossom, Sakura trees produce small fruits known as sakuranbo, small cherries that do not have much flesh beyond the seed within. Due to their bitter taste, sakuranbo are not traditionally eaten raw, but these trees have been genetically modified to produce sweeter tasting fruits. This particular genus is quite beautiful, speckled with pink blossoms throughout, blooming fully each winter.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사쿠란보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Small cherries that do not have much flesh beyond the seed within. Due to their bitter taste, sakuranbo are not traditionally eaten raw, but these fruits have been genetically modified to have a sweeter taste.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사쿠란보는 씨를 제외하면 과육이 많지 않은 작은 체리입니다. 과거에는 쓴맛 때문에 생으로 먹지 않지만, 유전자 변형으로 더 달콤한 맛의 열매로 재탄생했고 현재는 조리없이 맛있게 먹을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The apricot is a fruit that resembles the peach but much smaller, pale yellow or orange with some red shades. It is mainly consumed fresh, although it is also used to make some by-products like stewed fruit, jams, juices and dried apricots. Apricots have a high concentration of vitamin C. This variety of apricot tree is quite hardy, and they can be planted in stony soil.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A fruit that resembles the peach but much smaller, pale yellow or orange with some red shades. It is mainly consumed fresh, although it is also used to make some by-products like stewed fruit, jams, juices and dried apricots. Apricots have a high concentration of vitamin C.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>apricots</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>살구는 복숭아와 비슷하지만 훨씬 작고 연한 노란색 또는 주황색에 약간의 붉은색을 띠는 과일입니다. 조리없이도 많이 먹으며, 잼과 주스같은 일부 부산물을 만드는 데도 사용되곤 합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>살구 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>살구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hard apples, with a light green skin and crisp, juicy flesh. The flavour is tart and acidic. It remains firm when baked, making it a very popular cooking apple used in pies, where it can be sweetened.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damson plum tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Damson plum tree, also archaically called the "damascene", is a bushy tree bearing a relatively small ovoid fruit with a distinctive, somewhat astringent taste, widely used for culinary purposes, particularly in fruit preserves and jams. Many cultures also dry-age plums into prunes for long-term preservation.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댐슨 자두 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>댐슨 자두</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gros michel banana tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A tall tropical tree adorned with a cluster of yellow, elongated berries. These trees have been genetically modified to resist the fungal infections that nearly caused their extinction in old Terra. The Gros Michel variety has a distinct taste, different from that of Cavendish variety bananas. Bananas are easy to harvest, since a whole "hand" can be cut at the same time.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과채류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gros michel bananas</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그로 미셀 바나나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그로 미셀 바나나 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>raw dessert fruits</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대왕 토마토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>디저트 과일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mandarin tree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mandarins</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A small citrus tree with fruit resembling miniature oranges, usually eaten plain or in fruit salads. Mandarins are smaller and oblate, rather than spherical, like the common oranges (which are a mandarin hybrid). The taste is considered less sour, as well as sweeter and stronger. Mandarin trees are well equipped for growing in humid environments and in wet soil.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A small citrus tree with fruit resembling miniature oranges, usually eaten plain or in fruit salads. Mandarins are smaller and oblate, rather than spherical, like the common oranges (which are a mandarin hybrid). The taste is considered less sour, as well as sweeter and stronger.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감귤 나무</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>귤은 일반 오렌지보다 작고 둥글납작합니다. 맛은 덜 시고 더 달며 강합니다. 참고로 귤은 작을수록 더 맛있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>감귤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>black beauty aubergine plant</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A bulbous, tender, tasty purplish-black fruit of the nightshade family. Aubergines or eggplants are great in a variety of dishes, and the Black Beauty variety is delicious grilled, baked and stir-fried. Flourishes in warm weather.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지는 다양한 요리에 좋으며, 블랙 뷰티 품종은 그릴에 구워 먹거나, 오븐에 구워 먹거나, 볶아 먹어야 맛있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A bulbous, tender, tasty purplish-black fruit of the nightshade family. Aubergines or eggplants are great in a variety of dishes, and the Black Beauty variety is delicious grilled, baked and stir-fried.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>블랙뷰티 가지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forage grass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cultivated forage grass. Grows anywhere there is a little light and minimally fertile ground.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cultivated forage tall grass. Grows anywhere there is a little light and minimally fertile ground. Slows down anyone moving over it.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>forage tall grass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 목초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 경작하는 중</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>경작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한칸 띄우기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작을 수록 매운 꼬투리로, 주로 소스나 가루로 낸 조미료로 사용됩니다. 자체적인 맛은 순하지만, 내부에 포함된 캡사이신 때문에 매운 맛을 느낄 수 있습니다.\n재배중일 때는 동물들이 먹지 않는 것으로 알려져 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지는 채소로 자주 여겨지고, 일반적으로 반찬보다는 메인 요리로 사용될 때 맛이 좋습니다. 요리법에 따라 평가가 상당히 갈리는 식재료입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>자주빛이 도는 붉은색의 달콤한 버찌입니다. 체리로도 불리는 버찌는 계절성 겨울 시즌이 필요하기 때문에, 추운 북방 문화권에서 인기 있는 과일이 되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤기 나고 맛있는 빨간 사과입니다. 사과는 인류 초기부터 간식, 디저트, 그리고 과일주를 만드는 데 사용되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프룬이라고도 불리는 건자두입니다. 오랫동안 상하지 않고 먹을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아삭아삭한 녹색 배입니다. 사과의 먼 사촌으로 비슷하지만, 배가 섬유질이 더 많은 편이고 단맛이 덜합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작고 붉은 열매로 알려진 월귤입니다. 생으로 종종 먹을 때는 신맛과 밍밍한 맛이 나지만, 요리하면 자연스러운 단맛이 나오고 훨씬 더 맛있게 먹을 수 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노란색의 길쭉한 열매로, 껍질을 벗기면 매우 달고 무른 과육이 드러납니다. 이 열매는 수천 년 동안 열대지방에서 인간과 다른 영장류 모두에게 사랑받아 왔습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>말 그대로 오렌지색의 이 열매는 껍질 벗기기가 어렵기로 악명 높지만, 과육이 매우 많으며 신맛과 상쾌한 단맛이 조화를 이루는 새콤달콤한 맛으로 유명합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크고 무겁지만, 특유의 부드러운 단맛 덕분에 요리 재료로 잘 사용되어 왔습니다. 다양한 문화권에서 식재료뿐만 아니라 할로윈 가면이나 잭 오 랜턴으로도 사용되었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>약간 단단한 잎이 많은 녹색 채소로, 그대로 조리하거나 종종 잘게 썰어 발효시켜 사용됩니다. 대표적인 요리로 샐러드와 코울슬로가 있습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뿌리 부분을 주로 먹으며 특유의 식감 덕에 사랑받는 채소 중 하나입니다. 당분 함량에 따라서 다른 품종이 되기 때문에 같은 종인 사탕무는 설탕 생산원으로 길러집니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>즙이 많고 광택이 나는 연한 붉은 과일로, 일반적으로는 채소로 사용됩니다. 강하게 졸이면 내부의 산성이 부드러워져 감칠맛이 잘 느껴집니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영문 설명에 없던 내용들을 추가했습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실 백년초 선인장은 잘못된 표현입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>림왈도에서 Grass는 잡초로 나옵니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>과채류가 어색하다면 과일로 롤백해주세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>그로 미셀 바나나는 캐번디시 바나나와는 다른 독특한 맛을 가지고 있습니다. 한때는 이 세상의 모든 바나나 공급을 책임지기도 했었습니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버찌 나무가 더 직관적이면 롤백해주세요.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>재배된 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-  </si>
-  <si>
-    <t>재배된 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축의 주식으로 사용된다면 사실 잡초까지는 아닙니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-  </si>
-  <si>
-    <t>천연 방충제 역할을 할 만큼 강인한 냄새를 지닌 식용 가능한 알뿌리식물로, 요리 방법만큼이나 다양한 품종이 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 양파는 병충해에 영향을 받지 않습니다.</t>
-  </si>
-  <si>
-    <t>기술적으로 호박은 파종과 수확이 매우 쉬운 것으로 잘 알려져 있습니다. 상당한 내구성이 있지만, 크고 무거워서 수경재배기에 담기에는 너무 부담스럽습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 호박 수확은 재배 기술에 상관없이 항상 성공합니다.</t>
-  </si>
-  <si>
-    <t>동물에게 먹힘을 피하고자 진화한 이 식물은 캡사이신을 품고 있어 섭취하면 고통스럽지만, 유독 사람에게는 고통보다는 매운 맛을 선물합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 동물들은 고추 식물은 먹지 않으며, 영양가가 전혀 없는 것으로 간주합니다. 그러나 수확된 고추는 정상적으로 먹습니다.</t>
-  </si>
-  <si>
-    <t>완두는 물이 많이 필요하여 비가 오면 잘 자랍니다. 또한, 완두콩은 두꺼운 꼬투리 만큼 긴 보존 기간을 가지는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 평소에는 다른 작물보다 효율이 떨어지지만, 비가 올 때는 성장 속도가 50% 증가합니다.</t>
-  </si>
-  <si>
-    <t>식물학적으로 가지 식물은 가지과에 속하는 길다란 자주색 과일입니다. 따뜻한 날씨에서 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 가지 식물은 온도가 37도에서 60도 사이일 때 30% 더 빠르게 자랍니다.</t>
-  </si>
-  <si>
-    <t>과거에 양배추를 독한 가루제의 농약을 뿌려가며 재배한 탓인지, 현재 이 품종은 공기 중 독소와 방사능에 대한 저항력이 매우 높습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 양배추는 유독성 낙진의 영향을 받지 않으며, 다른 식물과 달리 낙진으로 인해서는 죽지 않습니다.</t>
-  </si>
-  <si>
-    <t>원뿌리 식물인 비트는 사람과 가축을 위해 널리 재배됩니다. 영양가가 특히 높고 과거에는 염료 제조에 사용되곤 했습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 비트는 비옥한 토양을 필요로 하지만, 매우 튼튼하여 한겨울 동안에도 10%의 속도로 계속 자랄 수 있습니다.</t>
-  </si>
-  <si>
-    <t>덩굴식물로 땅바닥을 기면서 줄기로 뿌리가 나와 자랍니다. 이 특징 덕에 뿌리째 뽑지 않고도 쉽게 토마토를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 토마토는 과일 나무처럼 수확해도 완전히 사라지지 않습니다.</t>
-  </si>
-  <si>
-    <t>윤기 나는 맛있는 빨간 사과를 맺는 나무로, 다양한 품종이 존재하지만 이 빨간 품종은 따뜻한 여름과 온화한 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
-  </si>
-  <si>
-    <t>솜털이 있는 예쁜 복숭아를 맺는 낙엽수로, 햇빛과 따뜻한 온도만 있다면 잘 자랍니다. 이 나무들은 과거에도 인기가 많아 고대인들은 노란 문서에 복숭아 그림을 담아 서로 주고받았던 것으로 보입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n복숭아 나무는 매우 튼튼하여 자갈이 많은 지형에도 심을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>달콤한 버찌를 맺는 벚꽃나무는 계절성 겨울 시즌을 필요로 하는 것으로 유명합니다. 매우 아름다우며, 다양한 문화권에서 겨울 벚꽃축제의 무대가 되곤 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n벚꽃나무는 다른 과일 나무보다 두배 아름답고, 겨울마다 만개하는 벚꽃으로 뒤덮입니다.</t>
-  </si>
-  <si>
-    <t>매끈한 껍질을 가진 진한 보랏빛 과일을 맺는 무성한 나무입니다. 많은 문화권에서 자두를 말려 프룬이라고도 불리는 건자두를 만들어 장기 보존합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n자두를 상온에 두어 보존 기간이 긴 말린 자두로 만들 수 있습니다.</t>
-  </si>
-  <si>
-    <t>향긋하고 아삭한 녹색 배를 맺는 튼튼한 나무로, 배나무는 물과 서늘한 날씨를 좋아 하고 그늘에서도 잘 자라는 것으로 유명합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n배나무는 지붕아래에서도 재배할 수 있으며 풍력 발전기를 가로막지 않습니다.</t>
-  </si>
-  <si>
-    <t>"해안선인장"라고 불리는 이 선인장은 뜨겁고 건조한 사막에서도 매우 풍성하게 자라는 것으로 알려져 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n백년초 선인장은 서로 가까이 심을 수 있으며, 인접한 식물의 파종을 막지 않습니다.</t>
-  </si>
-  <si>
-    <t>붉은 열매로 점철된 낮게 자라는 덤불로, 고산지대 혹은 북위 38도 이상 고위도에서 쉽게 볼 수 있으며, 척박한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n월귤 덤불은 화분에서도 재배할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>21세기를 강타한 대규모 바나나병 감염 사태에서 살아남은 품종으로 열대지방 대표적인 파초입니다. 노란색의 길쭉한 열매인 바나나가 따기 편하게 송이째로 달려 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n바나나는 한 번에 "송이"를 수확할 수 있어, 다른 나무들보다 수확 시간이 훨씬 짧습니다.</t>
-  </si>
-  <si>
-    <t>주황색 과일이 점점이 달린 무성한 아열대 나무로, 흡습이 필요할 정도의 습한 환경과 습한 토양에서도 잘 자랍니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n오렌지 나무는 주변 3타일 반경 내에 있는 강 타일 하나당 성장률이 1% 증가합니다.</t>
-  </si>
-  <si>
-    <t>원뿌리 식물인 키오자 비트는 허브 같은 식물로 사람과 가축을 위해 널리 재배됩니다. 이 품종은 겉보기에 일반적인 비트와 같지만, 과육은 독특한 빨간색과 흰색 줄무늬를 가지고 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 키오자 비트는 비옥한 토양이 있어야 하지만, 뿌리가 튼튼하기에 한겨울 동안에도 10%의 속도로 성장할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>녹색 잎으로 둘러싸인 단단한 흰색 중심부를 가진 큰 둥근 식물로, 흔히 하얀 브로콜리라고 착각하기 쉬운 녹색 꽃양배추입니다. 이 품종은 공기 중 독소와 방사능에 영향을 받지 않도록 개량되었습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 콜리플라워는 유독성 낙진에도 꿋꿋하며, 다른 식물과 달리 낙진으로는 죽지 않습니다.</t>
-  </si>
-  <si>
-    <t>천연 방충제 역할을 할 만큼 강인한 향을 품은 식용 가능한 하얀 알뿌리식물로, 이 품종은 양파의 대표적인 품종입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 흰 양파는 강인하기 때문에 병충해 따위는 무시할 수 있습니다.</t>
-  </si>
-  <si>
-    <t>가장 큰 호박 품종 중 하나인 자이언트 호박은 무게가 25kg에서 50kg까지 자랄 수 있습니다. 파종과 수확이 매우 쉽고 튼튼하지만, 워낙 거대해서 수경재배기에 담기에는 무리입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 자이언트 호박은 남녀노소 누구나 수확에 성공합니다.</t>
-  </si>
-  <si>
-    <t>이 토마토 품종은 가지치기만 정기적으로 한다면 수확 후 추가적인 파종없이 오랫동안 덩굴을 유지할 수 있습니다. 수확할 때 가지치기를 자동으로 하기 때문에 따로 관리할 필요가 없습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 비프스테이크 토마토는 수확과 상관없이 수명이 다해야만 사라집니다.</t>
-  </si>
-  <si>
-    <t>단단한 사과를 맺는 나무로, 연한 녹색 껍질과 바삭하고 즙이 많은 과육을 가지고 있습니다. 이 녹색 품종은 너무 덥지않은 여름과 적당히 추운 겨울을 선호합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.</t>
-  </si>
-  <si>
-    <t>벚꽃 나무로도 알려진 사쿠라 나무는 사쿠란보라고 알려진 작은 열매를 맺습니다. 전통적으로 생으로 먹지 않았지만, 이 품종은 더 달콤하게 생산하도록 유전자 변형되었습니다. 이 품종은 매우 아름다우며, 벚꽃이 점점이 피어 매 겨울마다 만개합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n사쿠라 나무는 다른 과일 나무보다 더 아름답고, 겨울에는 벚꽃이 만개하여 진귀한 광경을 만들어 냅니다.</t>
-  </si>
-  <si>
-    <t>살구를 맺는 장미과 벚나무속의 낙엽 소교목입니다. 현재도 가로수로 많이 심으며, 과거 고대인들이 기와 마당에 심어 꽃과 열매를 즐기기도 한 전통 정원수입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n살구 나무는 매우 튼튼하여 돌이 많은 땅에도 심을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>댐슨 자두나무는, 고어로 "다마신(damascene)"이라고도 불리며, 비교적 작은 타원형 과일을 맺는 그득한 나무입니다. 열매는 건조하여 장기 보존을 위한 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n댐슨 자두를 상온에 두면 유통기한이 긴 말린 자두로 변합니다.</t>
-  </si>
-  <si>
-    <t>특유의 다소 떫은 맛을 가지고 있어 요리, 특히 과일 보존식품과 잼에 널리 사용됩니다. 많은 문화권에서는 자두를 건조하여 유통기한이 긴 말린 자두로 만듭니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에서 약 15일이 지나면 장기간 유통 가능한 말린 자두가 됩니다.</t>
-  </si>
-  <si>
-    <t>이 품종은 21세기에 멸종이 일어날 뻔한 대규모 바나나병 감염 사태에서도 살아남도록 유전자 변형되었습니다. 다른 바나나 나무처럼 한 번에 전체 "송이"를 수확할 수 있습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n그로 미셀 바나나는 "송이" 단위로 수확하기 때문에, 다른 과일 나무들보다 빠르게 재배합니다.</t>
-  </si>
-  <si>
-    <t>작은 귤나무로, 열매는 미니어처 오렌지를 닮았으며 보통 그대로 먹거나 과일 샐러드에 넣어 먹습니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 과일 나무는 일반 작물보다 약 4배의 공간을 더 차지하며, 열매를 맺는 데 오랜 시간이 걸립니다. 열매는 생으로 먹을 수 있으며, 수확해도 완전히 사라지지 않지만, 수명이 끝나면 새로 심어야 합니다.\n\n감귤 나무는 3타일 내에 강 타일마다 성장률이 1%p 증가합니다.</t>
-  </si>
-  <si>
-    <t>식물학적으로 가지과에 속하는 둥글고 부드러운 맛있는 검은 밤색 과일입니다. 잘 자라기 위해선 따뜻한 날씨가 필요합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 블랙뷰티 가지는 섭씨 37°C~60°C에서 30% 더 빨리 자랍니다.</t>
-  </si>
-  <si>
-    <t>재배된 사료용 풀입니다. 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-  </si>
-  <si>
-    <t>재배된 사료용 키 큰 풀입니다. 통과할 때 느려지고, 약간의 빛과 최소한의 양분만 있다면 어디서나 자라는 풀입니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt; 건초와 마찬가지로 가축이 먹을 수 있습니다. 병충해의 영향을 받지 않지만, 건초처럼 수확하여 보관할 수는 없습니다.</t>
-  </si>
-  <si>
-    <t>진한 보랏빛이 도는 매끈한 과일로 특히 신맛이 납니다. 다양하게 잼, 젤리, 과일주로 만들어 먹기도 하며, 장기 보존을 위해 말려서 건자두로 만들기도 합니다.\n\n&lt;color=#E5E54C&gt;특성:&lt;/color&gt;상온에 두고 약 15일이 지나면 장기간 보관할 수 있는 말린 자두가 됩니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 경작</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2228,7 +2249,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2237,7 +2258,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2254,7 +2275,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2268,10 +2289,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>298</v>
+        <v>513</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2288,7 +2309,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -2302,13 +2323,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -2322,10 +2340,10 @@
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -2339,10 +2357,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -2359,7 +2377,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -2373,10 +2391,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -2390,10 +2408,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2407,10 +2425,10 @@
         <v>30</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -2424,10 +2442,10 @@
         <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -2441,10 +2459,10 @@
         <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2461,7 +2479,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2475,10 +2493,10 @@
         <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2492,10 +2510,10 @@
         <v>41</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2509,10 +2527,10 @@
         <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2526,10 +2544,10 @@
         <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2543,10 +2561,10 @@
         <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2560,10 +2578,10 @@
         <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,10 +2595,10 @@
         <v>51</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2597,7 +2615,7 @@
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2611,10 +2629,10 @@
         <v>56</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,7 +2649,7 @@
         <v>59</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2645,10 +2663,10 @@
         <v>61</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>482</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2665,7 +2683,7 @@
         <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2679,10 +2697,10 @@
         <v>66</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>361</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2699,7 +2717,7 @@
         <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2713,10 +2731,10 @@
         <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2733,7 +2751,7 @@
         <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2747,10 +2765,10 @@
         <v>76</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2764,10 +2782,10 @@
         <v>78</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2781,10 +2799,10 @@
         <v>80</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -2798,10 +2816,10 @@
         <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -2815,10 +2833,10 @@
         <v>84</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2832,10 +2850,10 @@
         <v>86</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -2849,10 +2867,10 @@
         <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -2866,10 +2884,10 @@
         <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2883,10 +2901,10 @@
         <v>92</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2903,7 +2921,7 @@
         <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -2917,7 +2935,7 @@
         <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>486</v>
@@ -2937,10 +2955,10 @@
         <v>100</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -2954,10 +2972,10 @@
         <v>102</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -2971,10 +2989,10 @@
         <v>104</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -2988,10 +3006,10 @@
         <v>106</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3005,10 +3023,10 @@
         <v>108</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3022,10 +3040,10 @@
         <v>110</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3039,10 +3057,10 @@
         <v>112</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3056,10 +3074,10 @@
         <v>114</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3073,10 +3091,10 @@
         <v>116</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3090,10 +3108,10 @@
         <v>118</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3110,7 +3128,7 @@
         <v>121</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3124,10 +3142,10 @@
         <v>123</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>497</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3141,10 +3159,10 @@
         <v>125</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3158,10 +3176,10 @@
         <v>127</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3178,7 +3196,7 @@
         <v>130</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3192,10 +3210,10 @@
         <v>132</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3212,7 +3230,7 @@
         <v>135</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3226,10 +3244,10 @@
         <v>137</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3246,7 +3264,7 @@
         <v>140</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3260,10 +3278,10 @@
         <v>142</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3280,7 +3298,7 @@
         <v>145</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3294,10 +3312,10 @@
         <v>147</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3314,7 +3332,7 @@
         <v>150</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -3328,10 +3346,10 @@
         <v>152</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3348,7 +3366,7 @@
         <v>155</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -3362,10 +3380,10 @@
         <v>157</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3382,10 +3400,10 @@
         <v>160</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -3399,10 +3417,10 @@
         <v>162</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -3419,7 +3437,7 @@
         <v>165</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3433,10 +3451,10 @@
         <v>167</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3450,10 +3468,10 @@
         <v>169</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -3467,10 +3485,10 @@
         <v>171</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3484,13 +3502,13 @@
         <v>173</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3504,10 +3522,10 @@
         <v>175</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -3521,10 +3539,10 @@
         <v>177</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3538,10 +3556,10 @@
         <v>179</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>509</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3558,7 +3576,7 @@
         <v>182</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3572,10 +3590,10 @@
         <v>184</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -3592,7 +3610,7 @@
         <v>187</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3606,10 +3624,10 @@
         <v>189</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>511</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -3620,1286 +3638,1286 @@
         <v>191</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>192</v>
+        <v>525</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>195</v>
+        <v>523</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>198</v>
+        <v>524</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>90</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="F97" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>88</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>409</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>417</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>118</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>418</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>421</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>426</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>164</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>520</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>184</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>189</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>129</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>132</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>106</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
